--- a/tests/function_test_cases.xlsx
+++ b/tests/function_test_cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11112\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project-managerTest\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E02E841-FB4A-4683-B4F5-3C80BF09715B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5778B839-CBF9-4F6C-820B-97EB8402F043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6077393B-3550-45E2-89E5-1A86BDF8BB4A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>TEST_LOGIN</t>
   </si>
@@ -297,10 +297,62 @@
 a</t>
   </si>
   <si>
-    <t>FORGOT_PASSWORD</t>
-  </si>
-  <si>
     <t>TC_16</t>
+  </si>
+  <si>
+    <t>CASE 16</t>
+  </si>
+  <si>
+    <t>TC_17</t>
+  </si>
+  <si>
+    <t>CASE 17</t>
+  </si>
+  <si>
+    <t>FORGOT PASSWORD</t>
+  </si>
+  <si>
+    <t>invalid email format 
+(validate the email field for invalid email like test@com gives an error)</t>
+  </si>
+  <si>
+    <t>TC_18</t>
+  </si>
+  <si>
+    <t>CASE 18</t>
+  </si>
+  <si>
+    <t>Valid email 
+(click on the forgot password link, 
+enter a valid email and check the  email is received and contains a OTP for reset password,change password, logout and login with changed password)</t>
+  </si>
+  <si>
+    <t>submit email that is not registered and check the result 
+(it may be an error, or a general success message - this depends if how security is implemented)</t>
+  </si>
+  <si>
+    <t>SEARCH PRODUCT</t>
+  </si>
+  <si>
+    <t>TC_19</t>
+  </si>
+  <si>
+    <t>TC_20</t>
+  </si>
+  <si>
+    <t>TC_21</t>
+  </si>
+  <si>
+    <t>CASE 19</t>
+  </si>
+  <si>
+    <t>CASE 20</t>
+  </si>
+  <si>
+    <t>CASE 21</t>
+  </si>
+  <si>
+    <t>Submit with empty email</t>
   </si>
 </sst>
 </file>
@@ -726,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674C0DEC-06D0-469B-89B6-55471FDACAE3}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1042,14 +1094,94 @@
     <row r="32" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B33" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
+      <c r="B34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>75</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/tests/function_test_cases.xlsx
+++ b/tests/function_test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project-managerTest\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5778B839-CBF9-4F6C-820B-97EB8402F043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E88935-56DD-4CA6-9EE0-1CC79F93DA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6077393B-3550-45E2-89E5-1A86BDF8BB4A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="129">
   <si>
     <t>TEST_LOGIN</t>
   </si>
@@ -353,6 +353,136 @@
   </si>
   <si>
     <t>Submit with empty email</t>
+  </si>
+  <si>
+    <t>Note: Sẽ bổ sung phần nhập sai định dạng pass</t>
+  </si>
+  <si>
+    <t>Không nhập mật khẩu mới</t>
+  </si>
+  <si>
+    <t>Nhập sai định dạng mật khẩu mới (ít hơn 8 kí tự)</t>
+  </si>
+  <si>
+    <t>TC_22</t>
+  </si>
+  <si>
+    <t>CASE 22</t>
+  </si>
+  <si>
+    <t>Nhập sai định dạng mật khẩu mới
+(không có kí tự hoa)</t>
+  </si>
+  <si>
+    <t>TC_23</t>
+  </si>
+  <si>
+    <t>CASE 23</t>
+  </si>
+  <si>
+    <t>Nhập sai định dạng mật khẩu mới
+(không có kí tự thường)</t>
+  </si>
+  <si>
+    <t>TC_24</t>
+  </si>
+  <si>
+    <t>CASE 24</t>
+  </si>
+  <si>
+    <t>Nhập sai định dạng mật khẩu mới
+(không có chữ số</t>
+  </si>
+  <si>
+    <t>TC_25</t>
+  </si>
+  <si>
+    <t>Nhập sai định dạng mật khẩu mới
+(quá 100 kí tự)</t>
+  </si>
+  <si>
+    <t>Nhập sai định dạng họ tên
+Nhập sai định dạng email
+Nhập sai định dạng mật khẩu
+(Không có kí tự viết hoa)</t>
+  </si>
+  <si>
+    <t>Nhập sai định dạng họ tên
+Nhập sai định dạng email
+Nhập sai định dạng mật khẩu
+(ít hơn 8 kí tự)</t>
+  </si>
+  <si>
+    <t>Nhập sai định dạng họ tên
+Nhập sai định dạng email
+Nhập sai định dạng mật khẩu
+(Không có kí tự viết thường)</t>
+  </si>
+  <si>
+    <t>Nhập sai định dạng họ tên
+Nhập sai định dạng email
+Nhập sai định dạng mật khẩu
+(Không có chữ số)</t>
+  </si>
+  <si>
+    <t>Nhập sai định dạng họ tên
+Nhập sai định dạng email
+Nhập sai định dạng mật khẩu
+(Nhiều hơn 100 kí tự)</t>
+  </si>
+  <si>
+    <t>TC_26</t>
+  </si>
+  <si>
+    <t>TC_27</t>
+  </si>
+  <si>
+    <t>TC_28</t>
+  </si>
+  <si>
+    <t>TC_29</t>
+  </si>
+  <si>
+    <t>TC_30</t>
+  </si>
+  <si>
+    <t>CASE 25</t>
+  </si>
+  <si>
+    <t>CASE 26</t>
+  </si>
+  <si>
+    <t>CASE 27</t>
+  </si>
+  <si>
+    <t>CASE 28</t>
+  </si>
+  <si>
+    <t>CASE 29</t>
+  </si>
+  <si>
+    <t>CASE 30</t>
+  </si>
+  <si>
+    <t>TC_31</t>
+  </si>
+  <si>
+    <t>CASE 31</t>
+  </si>
+  <si>
+    <t>TC_32</t>
+  </si>
+  <si>
+    <t>TC_33</t>
+  </si>
+  <si>
+    <t>CASE 32</t>
+  </si>
+  <si>
+    <t>CASE 33</t>
+  </si>
+  <si>
+    <t>Order</t>
   </si>
 </sst>
 </file>
@@ -416,7 +546,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -462,6 +592,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -778,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674C0DEC-06D0-469B-89B6-55471FDACAE3}">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -954,15 +1087,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
@@ -1006,8 +1132,9 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>59</v>
       </c>
@@ -1015,13 +1142,15 @@
         <v>68</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>48</v>
       </c>
@@ -1029,13 +1158,14 @@
         <v>49</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>51</v>
       </c>
@@ -1043,13 +1173,13 @@
         <v>52</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>53</v>
       </c>
@@ -1057,13 +1187,13 @@
         <v>56</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>55</v>
       </c>
@@ -1071,11 +1201,11 @@
         <v>58</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>72</v>
-      </c>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
@@ -1085,104 +1215,272 @@
         <v>63</v>
       </c>
       <c r="D31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F41" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="12" t="s">
+    <row r="42" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="11"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="4" t="s">
+    <row r="44" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="C44" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="4" t="s">
+      <c r="E44" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" s="5" t="s">
+      <c r="C46" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" s="4" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" s="5" t="s">
+    <row r="50" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="11"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="12" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="11"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B64" s="12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" s="4" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="C65" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="11"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B72" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/tests/function_test_cases.xlsx
+++ b/tests/function_test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project-managerTest\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E88935-56DD-4CA6-9EE0-1CC79F93DA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66E1989-FD16-4EE9-9D37-0D8A03977F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6077393B-3550-45E2-89E5-1A86BDF8BB4A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="262">
   <si>
     <t>TEST_LOGIN</t>
   </si>
@@ -401,88 +401,515 @@
 (quá 100 kí tự)</t>
   </si>
   <si>
-    <t>Nhập sai định dạng họ tên
-Nhập sai định dạng email
+    <t>TC_26</t>
+  </si>
+  <si>
+    <t>TC_27</t>
+  </si>
+  <si>
+    <t>TC_28</t>
+  </si>
+  <si>
+    <t>TC_29</t>
+  </si>
+  <si>
+    <t>TC_30</t>
+  </si>
+  <si>
+    <t>CASE 25</t>
+  </si>
+  <si>
+    <t>CASE 26</t>
+  </si>
+  <si>
+    <t>CASE 27</t>
+  </si>
+  <si>
+    <t>CASE 28</t>
+  </si>
+  <si>
+    <t>CASE 29</t>
+  </si>
+  <si>
+    <t>CASE 30</t>
+  </si>
+  <si>
+    <t>TC_31</t>
+  </si>
+  <si>
+    <t>CASE 31</t>
+  </si>
+  <si>
+    <t>TC_32</t>
+  </si>
+  <si>
+    <t>TC_33</t>
+  </si>
+  <si>
+    <t>CASE 32</t>
+  </si>
+  <si>
+    <t>CASE 33</t>
+  </si>
+  <si>
+    <t>Nhập đúng định dạng họ tên
+Nhập đúng định dạng email
+Nhập sai định dạng mật khẩu
+(ít hơn 8 kí tự)</t>
+  </si>
+  <si>
+    <t>Nhập đúng định dạng họ tên
+Nhập đúng định dạng email
 Nhập sai định dạng mật khẩu
 (Không có kí tự viết hoa)</t>
   </si>
   <si>
-    <t>Nhập sai định dạng họ tên
-Nhập sai định dạng email
-Nhập sai định dạng mật khẩu
-(ít hơn 8 kí tự)</t>
-  </si>
-  <si>
-    <t>Nhập sai định dạng họ tên
-Nhập sai định dạng email
+    <t>Nhập đúng định dạng họ tên
+Nhập đúng định dạng email
 Nhập sai định dạng mật khẩu
 (Không có kí tự viết thường)</t>
   </si>
   <si>
-    <t>Nhập sai định dạng họ tên
-Nhập sai định dạng email
+    <t>Nhập đúng định dạng họ tên
+Nhập đúng định dạng email
 Nhập sai định dạng mật khẩu
 (Không có chữ số)</t>
   </si>
   <si>
-    <t>Nhập sai định dạng họ tên
-Nhập sai định dạng email
+    <t>Nhập đúng định dạng họ tên
+Nhập đúng định dạng email
 Nhập sai định dạng mật khẩu
 (Nhiều hơn 100 kí tự)</t>
   </si>
   <si>
-    <t>TC_26</t>
-  </si>
-  <si>
-    <t>TC_27</t>
-  </si>
-  <si>
-    <t>TC_28</t>
-  </si>
-  <si>
-    <t>TC_29</t>
-  </si>
-  <si>
-    <t>TC_30</t>
-  </si>
-  <si>
-    <t>CASE 25</t>
-  </si>
-  <si>
-    <t>CASE 26</t>
-  </si>
-  <si>
-    <t>CASE 27</t>
-  </si>
-  <si>
-    <t>CASE 28</t>
-  </si>
-  <si>
-    <t>CASE 29</t>
-  </si>
-  <si>
-    <t>CASE 30</t>
-  </si>
-  <si>
-    <t>TC_31</t>
-  </si>
-  <si>
-    <t>CASE 31</t>
-  </si>
-  <si>
-    <t>TC_32</t>
-  </si>
-  <si>
-    <t>TC_33</t>
-  </si>
-  <si>
-    <t>CASE 32</t>
-  </si>
-  <si>
-    <t>CASE 33</t>
-  </si>
-  <si>
-    <t>Order</t>
+    <t>Nguyễn Trương Xuân Nghiêm
+2151010246nghiem@ou.edu.vn
+abcN01</t>
+  </si>
+  <si>
+    <t>Nguyễn Trương Xuân Nghiêm
+2151010246nghiem@ou.edu.vn
+abcdefg1</t>
+  </si>
+  <si>
+    <t>Nguyễn Trương Xuân Nghiêm
+2151010246nghiem@ou.edu.vn
+ABCDEFG1</t>
+  </si>
+  <si>
+    <t>Nguyễn Trương Xuân Nghiêm
+2151010246nghiem@ou.edu.vn
+abcDEFGH</t>
+  </si>
+  <si>
+    <t>Nguyễn Trương Xuân Nghiêm
+2151010246nghiem@ou.edu.vn
+abcN01…..a (100 kí tự)</t>
+  </si>
+  <si>
+    <t>Để trống và tim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trả về danh sách 
+toàn bộ sản phẩm </t>
+  </si>
+  <si>
+    <t>Trả về những sản phẩm trong tên có chứa kí tự đó (Note: dùng hàm tách chuỗi để test)</t>
+  </si>
+  <si>
+    <t>FAIL - &gt; danh sách sản 
+phẩm bị mất giá</t>
+  </si>
+  <si>
+    <t>NEGATIVE CASES</t>
+  </si>
+  <si>
+    <t>HAPPY CASES</t>
+  </si>
+  <si>
+    <t>Nhập tên chính xác sản phẩm cần tìm</t>
+  </si>
+  <si>
+    <t>Trả về duy nhất 1 
+sản phẩm có tên cần tìm</t>
+  </si>
+  <si>
+    <t>TC_34</t>
+  </si>
+  <si>
+    <t>CASE 34</t>
+  </si>
+  <si>
+    <t>Nhập 1 kí tự bất kì xuất hiện trong tên sản phẩm 
+và tìm</t>
+  </si>
+  <si>
+    <t>Nhập chuỗi kí tự liên tiếp xuất hiện trong 
+tên sản phẩm</t>
+  </si>
+  <si>
+    <t>Trả về những sản phẩm trong tên có chứa kí tự đó 
+(Note: dùng hàm tách chuỗi để test)</t>
+  </si>
+  <si>
+    <t>Nhập 1 kí tự không xuất hiện trong tên sản phẩm</t>
+  </si>
+  <si>
+    <t>TC_35</t>
+  </si>
+  <si>
+    <t>CASE 35</t>
+  </si>
+  <si>
+    <t>TC_36</t>
+  </si>
+  <si>
+    <t>CASE 36</t>
+  </si>
+  <si>
+    <t>Nhập chuỗi kí tự liên tiếp ko xuất hiện trong
+tên sản phẩm</t>
+  </si>
+  <si>
+    <t>Nhập tên 1 sản phẩm ko xuất hiện trong cưa hàng</t>
+  </si>
+  <si>
+    <t>TC_37</t>
+  </si>
+  <si>
+    <t>CASE 37</t>
+  </si>
+  <si>
+    <t>Nhập kí tự là khoảng trắng</t>
+  </si>
+  <si>
+    <t>Filter Products</t>
+  </si>
+  <si>
+    <t>TC_38</t>
+  </si>
+  <si>
+    <t>CASE 38</t>
+  </si>
+  <si>
+    <t>Hover lên Sản phẩm và chọn sản phẩm 
+tại drop dowsn list (Iphone)</t>
+  </si>
+  <si>
+    <t>TC_39</t>
+  </si>
+  <si>
+    <t>CASE 39</t>
+  </si>
+  <si>
+    <t>Hover lên Sản phẩm và chọn sản phẩm 
+tại drop dowsn list (Watch)</t>
+  </si>
+  <si>
+    <t>Adding product to Cart</t>
+  </si>
+  <si>
+    <t>TC_40</t>
+  </si>
+  <si>
+    <t>CASE 40</t>
+  </si>
+  <si>
+    <t>TC_41</t>
+  </si>
+  <si>
+    <t>CASE 41</t>
+  </si>
+  <si>
+    <t>TC_42</t>
+  </si>
+  <si>
+    <t>CASE 42</t>
+  </si>
+  <si>
+    <t>Chọn sản phẩm và nhập số lượng hợp lệ 
+(&gt;0 và &lt; số sản phẩm hiện có)</t>
+  </si>
+  <si>
+    <t>Để trống số lượng sản phẩm</t>
+  </si>
+  <si>
+    <t>Nhập số lượng sản phẩm &lt;= 0</t>
+  </si>
+  <si>
+    <t>TC_43</t>
+  </si>
+  <si>
+    <t>CASE 43</t>
+  </si>
+  <si>
+    <t>Nhập số lượng sản phẩm vượt quá 
+số lượng sản phẩm hiện có</t>
+  </si>
+  <si>
+    <t>TC_44</t>
+  </si>
+  <si>
+    <t>CASE 44</t>
+  </si>
+  <si>
+    <t>Check out</t>
+  </si>
+  <si>
+    <t>Giỏ hàng trống và chọn thanh toán</t>
+  </si>
+  <si>
+    <t>TC_45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEGATIVE CASE </t>
+  </si>
+  <si>
+    <t>CASE 45</t>
+  </si>
+  <si>
+    <t>TC_46</t>
+  </si>
+  <si>
+    <t>CASE 46</t>
+  </si>
+  <si>
+    <t>Giỏ hàng có chứa nhiều hơn 1 sản phẩm =&gt; chọn thanh toán =&gt; điền thông tin Họ tên, số điện thoại, 
+Địa chỉ đúng định dạng =&gt; chọn đặt hàng</t>
+  </si>
+  <si>
+    <t>PRECONDITION</t>
+  </si>
+  <si>
+    <t>Giỏ hàng có chữa 1 sản phẩm =&gt; chọn thanh toán =&gt; điền thông tin nhận hàng (Họ tên, số điện thoại, Địa chỉ) đúng định dạng =&gt; chọn đặt hàng</t>
+  </si>
+  <si>
+    <t>Chọn thanh 
+toán thành công</t>
+  </si>
+  <si>
+    <t>TC_47</t>
+  </si>
+  <si>
+    <t>Chọn thanh toán thành 
+công</t>
+  </si>
+  <si>
+    <t>CASE 47</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Không điền thông tin nhận hàng =&gt; chọn đặt hàng</t>
+  </si>
+  <si>
+    <t>TC_48</t>
+  </si>
+  <si>
+    <t>Thông tin nhận hàng không hợp lệ (Không nhập tên) =&gt;&gt;Chọn đặt hàng</t>
+  </si>
+  <si>
+    <t>TC_49</t>
+  </si>
+  <si>
+    <t>TC_50</t>
+  </si>
+  <si>
+    <t>CASE 59</t>
+  </si>
+  <si>
+    <t>TC_51</t>
+  </si>
+  <si>
+    <t>CASE 51</t>
+  </si>
+  <si>
+    <t>CASE 50</t>
+  </si>
+  <si>
+    <t>Số đth (ko nhập)</t>
+  </si>
+  <si>
+    <t>Số đth (nhập ko đủ 9 số)</t>
+  </si>
+  <si>
+    <t>số đth (có chứa chữ cái)</t>
+  </si>
+  <si>
+    <t>TC_52</t>
+  </si>
+  <si>
+    <t>CASE 52</t>
+  </si>
+  <si>
+    <t>số đth (có chứa kí tự đặt biệt)</t>
+  </si>
+  <si>
+    <t>TC_53</t>
+  </si>
+  <si>
+    <t>CASE 53</t>
+  </si>
+  <si>
+    <t>ko nhập địa chỉ</t>
+  </si>
+  <si>
+    <t>TC_54</t>
+  </si>
+  <si>
+    <t>CASE 54</t>
+  </si>
+  <si>
+    <t>Địa chỉ ko hợp lệ (phải đủ số nhà, phường, xã)</t>
+  </si>
+  <si>
+    <t>Nhớ cái icon giỏ hàng
+phải trả về 0</t>
+  </si>
+  <si>
+    <t>Nhớ check cái 
+icon giỏ hàng +1</t>
+  </si>
+  <si>
+    <t>Total Price</t>
+  </si>
+  <si>
+    <t>TC_55</t>
+  </si>
+  <si>
+    <t>CASE 48</t>
+  </si>
+  <si>
+    <t>CASE 49</t>
+  </si>
+  <si>
+    <t>CASE 55</t>
+  </si>
+  <si>
+    <t>Sâm đã test trên Unit</t>
+  </si>
+  <si>
+    <t>TC_56</t>
+  </si>
+  <si>
+    <t>CASE 56</t>
+  </si>
+  <si>
+    <t>TC_57</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>ADMIN PAGE</t>
+  </si>
+  <si>
+    <t>USER PAGE</t>
+  </si>
+  <si>
+    <t>LOGIN</t>
+  </si>
+  <si>
+    <t>TC_58</t>
+  </si>
+  <si>
+    <t>TC_59</t>
+  </si>
+  <si>
+    <t>TC_60</t>
+  </si>
+  <si>
+    <t>TC_61</t>
+  </si>
+  <si>
+    <t>TC_62</t>
+  </si>
+  <si>
+    <t>TC_63</t>
+  </si>
+  <si>
+    <t>CASE 57</t>
+  </si>
+  <si>
+    <t>CASE 58</t>
+  </si>
+  <si>
+    <t>CASE 60</t>
+  </si>
+  <si>
+    <t>CASE 61</t>
+  </si>
+  <si>
+    <t>CASE 62</t>
+  </si>
+  <si>
+    <t>CASE 63</t>
+  </si>
+  <si>
+    <t>Add Group of Products</t>
+  </si>
+  <si>
+    <t>TC_64</t>
+  </si>
+  <si>
+    <t>CASE 64</t>
+  </si>
+  <si>
+    <t>CASE 65</t>
+  </si>
+  <si>
+    <t>TC_65</t>
+  </si>
+  <si>
+    <t>Nhập đúng định dạng và đầy đủ thông tin nhóm sp mới
+=&gt; Thêm thành công nhóm sản phẩm mới</t>
+  </si>
+  <si>
+    <t>Ko nhập toàn bộ các trường thông tin 
+cho nhóm sản phẩm mới</t>
+  </si>
+  <si>
+    <t>TC_66</t>
+  </si>
+  <si>
+    <t>CASE 66</t>
+  </si>
+  <si>
+    <t>Nhập sai định dạng tiêu đề</t>
+  </si>
+  <si>
+    <t>TC_67</t>
+  </si>
+  <si>
+    <t>CASE 67</t>
+  </si>
+  <si>
+    <t>Nhập vị trí xuất hiện &lt;1</t>
+  </si>
+  <si>
+    <t>EDIT Group of Products</t>
+  </si>
+  <si>
+    <t>Không upload hình ảnh</t>
+  </si>
+  <si>
+    <t>TC_69</t>
+  </si>
+  <si>
+    <t>CASE 69</t>
+  </si>
+  <si>
+    <t>TC_70</t>
+  </si>
+  <si>
+    <t>CASE 70</t>
+  </si>
+  <si>
+    <t>CASE 71</t>
+  </si>
+  <si>
+    <t>TC_71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAPPY CASE </t>
   </si>
 </sst>
 </file>
@@ -519,7 +946,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -529,6 +956,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,7 +979,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -585,6 +1018,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -593,8 +1029,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -911,590 +1368,1205 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674C0DEC-06D0-469B-89B6-55471FDACAE3}">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:K148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="29.5546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="37.44140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="21.21875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="18.21875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="17.5546875" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="4"/>
+    <col min="2" max="2" width="14.6640625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="47.44140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="37.44140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="21.21875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="18.21875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="17.5546875" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+    <row r="5" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+    <row r="7" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+    <row r="9" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+    <row r="11" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+    <row r="13" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+    <row r="15" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="14" t="s">
+    <row r="16" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="21"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C17" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="15"/>
-    </row>
-    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+    <row r="20" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D20" s="5"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D22" s="5"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+      <c r="E22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
+      <c r="E24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
+      <c r="E26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
+      <c r="E28" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
+      <c r="E30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E32" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E33" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="11"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="12" t="s">
+      <c r="E37" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11"/>
+      <c r="B38" s="21"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C39" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="11"/>
+      <c r="B59" s="21"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C60" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="1:7" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E72" s="5"/>
+    </row>
+    <row r="73" spans="1:7" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E74" s="5"/>
+    </row>
+    <row r="75" spans="1:7" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="11"/>
+      <c r="B76" s="21"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C77" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B46" s="4" t="s">
+      <c r="D78" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="17"/>
+      <c r="B81" s="22"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C82" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A50" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D51" s="5"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D53" s="5"/>
-    </row>
-    <row r="54" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D55" s="5"/>
-    </row>
-    <row r="56" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D57" s="5"/>
-    </row>
-    <row r="58" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D59" s="5"/>
-    </row>
-    <row r="60" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D61" s="5"/>
-    </row>
-    <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="11"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B65" s="4" t="s">
+      <c r="D85" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="17"/>
+      <c r="B90" s="22"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C91" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A92" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="11"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B72" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="11"/>
+      <c r="D92" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A94" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B98" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A100" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A102" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B102" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B104" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="17"/>
+      <c r="B115" s="22"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B116" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="17"/>
+      <c r="B118" s="22"/>
+    </row>
+    <row r="119" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="17"/>
+      <c r="B133" s="22"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C134" s="12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A135" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A137" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="17"/>
+      <c r="B144" s="22"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C145" s="12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>259</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{25B4E455-603B-42ED-B3A6-7523DA43B008}"/>
-    <hyperlink ref="F8" r:id="rId2" xr:uid="{38AB3176-8235-4A52-AFBF-C46F2EC539DA}"/>
-    <hyperlink ref="F10" r:id="rId3" xr:uid="{C86F3D1D-FCE3-4DAD-922D-C0CC53461406}"/>
-    <hyperlink ref="F12" r:id="rId4" xr:uid="{F806E8E8-A3EC-47FA-888E-0F1566CF0817}"/>
-    <hyperlink ref="F14" r:id="rId5" xr:uid="{83E52D3F-3B45-42E1-A1C4-22E1D6AB6279}"/>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{25B4E455-603B-42ED-B3A6-7523DA43B008}"/>
+    <hyperlink ref="G9" r:id="rId2" xr:uid="{38AB3176-8235-4A52-AFBF-C46F2EC539DA}"/>
+    <hyperlink ref="G11" r:id="rId3" xr:uid="{C86F3D1D-FCE3-4DAD-922D-C0CC53461406}"/>
+    <hyperlink ref="G13" r:id="rId4" xr:uid="{F806E8E8-A3EC-47FA-888E-0F1566CF0817}"/>
+    <hyperlink ref="G15" r:id="rId5" xr:uid="{83E52D3F-3B45-42E1-A1C4-22E1D6AB6279}"/>
+    <hyperlink ref="G120" r:id="rId6" xr:uid="{509DF103-7E0C-4194-9E7C-85333D5E7B06}"/>
+    <hyperlink ref="G126" r:id="rId7" xr:uid="{2ABAC97E-6D61-4886-8BFD-C29C267C54ED}"/>
+    <hyperlink ref="G128" r:id="rId8" xr:uid="{B06EA74D-32D0-4E9C-AD92-BDDBC54B7A28}"/>
+    <hyperlink ref="G130" r:id="rId9" xr:uid="{94256890-905F-4B77-B030-F604D10DC90B}"/>
+    <hyperlink ref="G132" r:id="rId10" xr:uid="{3986D44E-99E9-4218-AD2B-5B400B5AC8FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/tests/function_test_cases.xlsx
+++ b/tests/function_test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project-managerTest\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66E1989-FD16-4EE9-9D37-0D8A03977F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96424C3A-1DEB-453B-A183-CB295A8CC779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6077393B-3550-45E2-89E5-1A86BDF8BB4A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="535">
   <si>
     <t>TEST_LOGIN</t>
   </si>
@@ -844,9 +844,6 @@
     <t>CASE 63</t>
   </si>
   <si>
-    <t>Add Group of Products</t>
-  </si>
-  <si>
     <t>TC_64</t>
   </si>
   <si>
@@ -910,6 +907,889 @@
   </si>
   <si>
     <t xml:space="preserve">HAPPY CASE </t>
+  </si>
+  <si>
+    <t>Sửa đúng định dạng thông tin và thay đổi</t>
+  </si>
+  <si>
+    <t>Không nhập vào ô sửa tiêu đề (còn lại điền đúng)</t>
+  </si>
+  <si>
+    <t>TC_72</t>
+  </si>
+  <si>
+    <t>CASE 72</t>
+  </si>
+  <si>
+    <t>TC_73</t>
+  </si>
+  <si>
+    <t>CASE 73</t>
+  </si>
+  <si>
+    <t>Nhập kí tự đặc biệt vào ô tiêu đề (Còn lại điền đúng)</t>
+  </si>
+  <si>
+    <t>Chuyển trạng thái Hoạt động -&gt; ko hoạt động
+(trực tiếp tại trang Danh mục sản phẩm )</t>
+  </si>
+  <si>
+    <t>Điền đúng các trường thông tin</t>
+  </si>
+  <si>
+    <t>Chuyển trạng thái Hoạt động -&gt; ko hoạt động
+(tại trang chỉnh sửa chi tiết Danh mục sản phẩm )</t>
+  </si>
+  <si>
+    <t>Chuyển trạng thái Ko hoạt động -&gt; hoạt động
+(trực tiếp tại trang Danh mục sản phẩm )</t>
+  </si>
+  <si>
+    <t>TC_74</t>
+  </si>
+  <si>
+    <t>CASE 74</t>
+  </si>
+  <si>
+    <t>Chuyển trạng thái KO Hoạt động -&gt; Hoạt động
+(tại trang chỉnh sửa chi tiết Danh mục sản phẩm )</t>
+  </si>
+  <si>
+    <t>DELETE Group of Products</t>
+  </si>
+  <si>
+    <t>TC_75</t>
+  </si>
+  <si>
+    <t>TC_76</t>
+  </si>
+  <si>
+    <t>TC_77</t>
+  </si>
+  <si>
+    <t>TC_78</t>
+  </si>
+  <si>
+    <t>CASE 75</t>
+  </si>
+  <si>
+    <t>CASE 76</t>
+  </si>
+  <si>
+    <t>CASE 77</t>
+  </si>
+  <si>
+    <t>CASE 78</t>
+  </si>
+  <si>
+    <t>Thêm/sửa sản 
+phẩm với thư mục con</t>
+  </si>
+  <si>
+    <t>vào chức năng sửa</t>
+  </si>
+  <si>
+    <t>TC_79</t>
+  </si>
+  <si>
+    <t>TC_80</t>
+  </si>
+  <si>
+    <t>CASE 80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vào button xóa và nhấn </t>
+  </si>
+  <si>
+    <t>TC_81</t>
+  </si>
+  <si>
+    <t>CASE 81</t>
+  </si>
+  <si>
+    <t>Hai admin đồng
+thời thực hiện xóa 1 danh sách sản phẩm cùng lúc</t>
+  </si>
+  <si>
+    <t>TC_82</t>
+  </si>
+  <si>
+    <t>CASE 82</t>
+  </si>
+  <si>
+    <t>Admin 1 đã xóa thành công.
+Admin 2 ấn vào sửa =&gt; hiện thông báo nhóm sp đã
+xóa, ko thể sửa</t>
+  </si>
+  <si>
+    <t>Search Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin 1 đã xóa thành công.
+Admin 2 ấn vào nút xóa =&gt; hiện thông báo sản phẩm ko tồn tại, ko thể xóa </t>
+  </si>
+  <si>
+    <t>CASE 83</t>
+  </si>
+  <si>
+    <t>TC_83</t>
+  </si>
+  <si>
+    <t>TC_84</t>
+  </si>
+  <si>
+    <t>TC_85</t>
+  </si>
+  <si>
+    <t>TC_86</t>
+  </si>
+  <si>
+    <t>TC_87</t>
+  </si>
+  <si>
+    <t>Hiện thông báo sản phẩm ko tồn tại</t>
+  </si>
+  <si>
+    <t>Hiện thông báo sản 
+phẩm ko tồn tại</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Hiện thông báo sản 
+phẩm ko tồn tại hoặc kí tự ko hợp lệ</t>
+  </si>
+  <si>
+    <t>TC_88</t>
+  </si>
+  <si>
+    <t>TC_89</t>
+  </si>
+  <si>
+    <t>TC_90</t>
+  </si>
+  <si>
+    <t>Add New Group of Products</t>
+  </si>
+  <si>
+    <t>FILTER Products</t>
+  </si>
+  <si>
+    <t>TC_91</t>
+  </si>
+  <si>
+    <t>CASE 91</t>
+  </si>
+  <si>
+    <t>Chọn Tất cả</t>
+  </si>
+  <si>
+    <t>Hiển thị toàn bộ danh sách 
+theo thứ tự mặc định trong database</t>
+  </si>
+  <si>
+    <t>TC_92</t>
+  </si>
+  <si>
+    <t>CASE 92</t>
+  </si>
+  <si>
+    <t>Chọn Hoạt động</t>
+  </si>
+  <si>
+    <t>Hiển thị toàn bộ danh sách
+sản phẩm đang hoạt động</t>
+  </si>
+  <si>
+    <t>TC_93</t>
+  </si>
+  <si>
+    <t>CASE 93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chọn ko hoạt động </t>
+  </si>
+  <si>
+    <t>Hiển thị toàn bộ danh sách
+sản phẩm ko hoạt động</t>
+  </si>
+  <si>
+    <t>TC_94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASE 94 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chọn Sắp xếp vị trí tăng dần </t>
+  </si>
+  <si>
+    <t>Hiển thị toàn bộ danh sách
+sản phẩm theo vị trí tăng dần</t>
+  </si>
+  <si>
+    <t>TC_95</t>
+  </si>
+  <si>
+    <t>CASE 95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chọn sắp xếp vị trí giảm dần </t>
+  </si>
+  <si>
+    <t>Hiển thị toàn bộ danh sách
+sản phẩm theo vị trí giảm dần</t>
+  </si>
+  <si>
+    <t>TC_96</t>
+  </si>
+  <si>
+    <t>CASE 96</t>
+  </si>
+  <si>
+    <t>Chọn sắp xếp theo giá tăng dần</t>
+  </si>
+  <si>
+    <t>Hiển thị toàn bộ danh sách
+sản phẩm theo giá tăng dần</t>
+  </si>
+  <si>
+    <t>TC_97</t>
+  </si>
+  <si>
+    <t>CASE 97</t>
+  </si>
+  <si>
+    <t>Chọn sắp xếp theo giá giảm dần</t>
+  </si>
+  <si>
+    <t>Hiển thị toàn bộ danh sách
+sản phẩm theo giá giảm  dần</t>
+  </si>
+  <si>
+    <t>Add new product</t>
+  </si>
+  <si>
+    <t>Edit details of a product</t>
+  </si>
+  <si>
+    <t>Delete a product</t>
+  </si>
+  <si>
+    <t>TC_98</t>
+  </si>
+  <si>
+    <t>Nhập đúng định dạng các trường dữ liệu, ko nhập trường mô tả</t>
+  </si>
+  <si>
+    <t>Nhập đúng định dạng các trường dữ liệu, chọn Danh mục là Danh mục cha</t>
+  </si>
+  <si>
+    <t>TC_68</t>
+  </si>
+  <si>
+    <t>CASE 68</t>
+  </si>
+  <si>
+    <t>Nhập đúng định dạng các trường dữ liệu, chọn Danh mục là Danh mục con của danh mục bất kì</t>
+  </si>
+  <si>
+    <t>Nhập đúng định dạng các trường dữ liệu, ko chọn up hình ảnh</t>
+  </si>
+  <si>
+    <t>Nhập đúng định dạng các trường dữ liệu, Chọn vị trí xuất hiện là con số rất lớn</t>
+  </si>
+  <si>
+    <t>CASE 98</t>
+  </si>
+  <si>
+    <t>Nhập đúng định dạng của các trường dữ liệu</t>
+  </si>
+  <si>
+    <t>CASE 99</t>
+  </si>
+  <si>
+    <t>Nhập đúng địng dạng của các trường dữ liệu
+(Ko nhập nội dung phần mô tả chi tiết)</t>
+  </si>
+  <si>
+    <t>TC_99</t>
+  </si>
+  <si>
+    <t>TC_100</t>
+  </si>
+  <si>
+    <t>CASE 100</t>
+  </si>
+  <si>
+    <t>Nhập đúng địng dạng của các trường dữ liệu
+(Ko nhập vị trí xuất hiện (để mặc định)</t>
+  </si>
+  <si>
+    <t>TC_101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASE 101 </t>
+  </si>
+  <si>
+    <t>Nhập đúng địng dạng của các trường dữ liệu
+Ko nhập phần mô tả sản phẩm và
+(Ko nhập vị trí xuất hiện (để mặc định)</t>
+  </si>
+  <si>
+    <t>Nhập đúng địng dạng của các trường dữ liệu
+(nhập vị trí xuất hiện là 1 con số dương rất lớn (để mặc định)</t>
+  </si>
+  <si>
+    <t>TC_102</t>
+  </si>
+  <si>
+    <t>CASE 102</t>
+  </si>
+  <si>
+    <t>Nhập đúng địng dạng của các trường dữ liệu
+Ko nhập phần giảm giá</t>
+  </si>
+  <si>
+    <t>TC_103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASE 103 </t>
+  </si>
+  <si>
+    <t>TC_104</t>
+  </si>
+  <si>
+    <t>CASE 104</t>
+  </si>
+  <si>
+    <t>Ko nhập đầy đủ toàn bộ các trường thông tin thêm sp mới</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập sai định dạng tiêu đề </t>
+  </si>
+  <si>
+    <t>TC_105</t>
+  </si>
+  <si>
+    <t>CASE 105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập giá &lt; 0 </t>
+  </si>
+  <si>
+    <t>TC_106</t>
+  </si>
+  <si>
+    <t>CASE 106</t>
+  </si>
+  <si>
+    <t>Nhập % giảm giá &lt; 1%</t>
+  </si>
+  <si>
+    <t>TC_107</t>
+  </si>
+  <si>
+    <t>CASE 107</t>
+  </si>
+  <si>
+    <t>Nhập % giảm giá &gt; 100%</t>
+  </si>
+  <si>
+    <t>TC_108</t>
+  </si>
+  <si>
+    <t>CASE 108</t>
+  </si>
+  <si>
+    <t>Không chọn ảnh</t>
+  </si>
+  <si>
+    <t>TC_109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASE 109 </t>
+  </si>
+  <si>
+    <t>Nhập vị trí tự động tăng &lt; 0</t>
+  </si>
+  <si>
+    <t>Chọn Nổi Bật</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASE 104 </t>
+  </si>
+  <si>
+    <t>Chọn ko nổi bật</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chọn hoạt động </t>
+  </si>
+  <si>
+    <t>Chọn hoạt động</t>
+  </si>
+  <si>
+    <t>CASE 103</t>
+  </si>
+  <si>
+    <t>Chọn Dừng hoạt động</t>
+  </si>
+  <si>
+    <t>Nhập số lượng &lt; 0</t>
+  </si>
+  <si>
+    <t>TC_110</t>
+  </si>
+  <si>
+    <t>CASE 110</t>
+  </si>
+  <si>
+    <t>Thay đổi thông tin theo đúng định dạng trong đặc tả</t>
+  </si>
+  <si>
+    <t>TC_111</t>
+  </si>
+  <si>
+    <t>TC_112</t>
+  </si>
+  <si>
+    <t>TC_113</t>
+  </si>
+  <si>
+    <t>TC_114</t>
+  </si>
+  <si>
+    <t>Nhập vị trí &lt; 0</t>
+  </si>
+  <si>
+    <t>Chuyển trạng thái Nổi bật -&gt; ko nổi bật
+(tại trang chỉnh sửa chi tiết Danh mục sản phẩm )</t>
+  </si>
+  <si>
+    <t>Chuyển trạng thái Ko Nổi bật -&gt; nổi bật
+(tại trang chỉnh sửa chi tiết Danh mục sản phẩm )</t>
+  </si>
+  <si>
+    <t>Nhập giá &lt; 1</t>
+  </si>
+  <si>
+    <t>Nhập giảm giá &lt; 0%</t>
+  </si>
+  <si>
+    <t>CASE 79</t>
+  </si>
+  <si>
+    <t>Sửa giảm giá &gt; 100%</t>
+  </si>
+  <si>
+    <t>Sửa số lượng &lt; 0</t>
+  </si>
+  <si>
+    <t>Xóa ảnh</t>
+  </si>
+  <si>
+    <t>SEARCH CUSTOMER</t>
+  </si>
+  <si>
+    <t>Nhập 1 kí tự bất kì xuất hiện trong tên khách hàng và tìm</t>
+  </si>
+  <si>
+    <t>Trả về những khách hàng trong tên có chứa kí tự đó (Note: dùng hàm tách chuỗi để test)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập chuỗi kí tự liên tiếp xuất hiện trong 
+tên sản phẩm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập 1 từ xuất hiện trong 
+tên sản phẩm </t>
+  </si>
+  <si>
+    <t>Trả về những khách hàng trong tên có chứa kí tự đó 
+(Note: dùng hàm tách chuỗi để test)</t>
+  </si>
+  <si>
+    <t>Nhập tên chính xác khách hàng cần tìm</t>
+  </si>
+  <si>
+    <t>Trả về duy nhất 1 khách hàng có tên cần tìm</t>
+  </si>
+  <si>
+    <t>CASE 88</t>
+  </si>
+  <si>
+    <t>Nhập email của khách hàng cần tìm</t>
+  </si>
+  <si>
+    <t>Trả về khách hàng có email đã nhập</t>
+  </si>
+  <si>
+    <t>FILTER CUSTOMER</t>
+  </si>
+  <si>
+    <t>TC_140</t>
+  </si>
+  <si>
+    <t>TC_139</t>
+  </si>
+  <si>
+    <t>TC_138</t>
+  </si>
+  <si>
+    <t>TC_137</t>
+  </si>
+  <si>
+    <t>TC_141</t>
+  </si>
+  <si>
+    <t>CASE 141</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách tài khoản đang hoạt động</t>
+  </si>
+  <si>
+    <t>TC_142</t>
+  </si>
+  <si>
+    <t>CASE 142</t>
+  </si>
+  <si>
+    <t>Chọn Dừng Hoạt động</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách tài khoản dừng hoạt động</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị tất cả danh sách 
+tài khoản </t>
+  </si>
+  <si>
+    <t>TC_143</t>
+  </si>
+  <si>
+    <t>CASE 143</t>
+  </si>
+  <si>
+    <t>Edit Customer state</t>
+  </si>
+  <si>
+    <t>Đổi từ Hoạt động -&gt; ko hoạt động</t>
+  </si>
+  <si>
+    <t>Tài khoản đó ko đăng nhập 
+dc nữa</t>
+  </si>
+  <si>
+    <t>TC_144</t>
+  </si>
+  <si>
+    <t>CASE 144</t>
+  </si>
+  <si>
+    <t>Đổi từ ko hoạt động -&gt; hoạt động</t>
+  </si>
+  <si>
+    <t>Tài khoản khách hàng có thể đăng nhập trở lại bình thường</t>
+  </si>
+  <si>
+    <t>Delete a Customer</t>
+  </si>
+  <si>
+    <t>CASE 145</t>
+  </si>
+  <si>
+    <t>Hai admin đồng
+thời thực hiện xóa 1 khách hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hai admin đồng
+thời thực hiện xóa 1 khách hàng cùng lúc </t>
+  </si>
+  <si>
+    <t>Admin 1 đã xóa thành công.
+Admin 2 ấn vào sửa trạng thái =&gt; hiện thông báo khách hàng đã xóa ko thể sửa trạng thái</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin 1 đã xóa thành công.
+Admin 2 ấn vào nút xóa =&gt; hiện thông báo khách hàng ko tồn tại, ko thể xóa </t>
+  </si>
+  <si>
+    <t>Search purchase order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trả về danh sách 
+toàn bộ đơn hàng với đúng ngày đặt đơn,tên và trạng thái của khách </t>
+  </si>
+  <si>
+    <t>Nhập chuỗi kí tự liên tiếp xuất hiện trong tên khách hàng và tìm</t>
+  </si>
+  <si>
+    <t>Trả về những đơn hàng  trong tên có chứa kí tự đó 
+(Note: dùng hàm tách chuỗi để test)</t>
+  </si>
+  <si>
+    <t>Trả về những đơn hàng trong tên có chứa kí tự đó (Note: dùng hàm tách chuỗi để test)</t>
+  </si>
+  <si>
+    <t>Nhập tên chính xác đơn hàng cần tìm</t>
+  </si>
+  <si>
+    <t>Trả về duy nhất 1 đơn hàng cần tìm</t>
+  </si>
+  <si>
+    <t>Nhập 1 kí tự không xuất hiện trong tên đơn hàng</t>
+  </si>
+  <si>
+    <t>Nhập chuỗi kí tự liên tiếp ko xuất hiện trong
+tên đơn hàng</t>
+  </si>
+  <si>
+    <t>Nhập tên 1 đơn hàng ko xuất hiện trong cưa hàng</t>
+  </si>
+  <si>
+    <t>Filter Purchase order</t>
+  </si>
+  <si>
+    <t>Chọn danh sách đơn hàng đang hoạt động</t>
+  </si>
+  <si>
+    <t>Hiển thịch danh sách đơn
+hàng "Chưa thanh toán"</t>
+  </si>
+  <si>
+    <t>Chọn danh sách đơn hàng dừng hoạt động</t>
+  </si>
+  <si>
+    <t>Hiển thi danh sách đơn
+hàng "Đã thanh toán"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chọn tất cả </t>
+  </si>
+  <si>
+    <t>Hiển thị tất cả đơn hàng</t>
+  </si>
+  <si>
+    <t>Edit Purchase order</t>
+  </si>
+  <si>
+    <t>Chưa thanh toán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vào chức năng chỉnh sửa và sửa lại thông tin theo 
+đúng validate trong đặc tả </t>
+  </si>
+  <si>
+    <t>TC_145</t>
+  </si>
+  <si>
+    <t>TC_146</t>
+  </si>
+  <si>
+    <t>CASE 146</t>
+  </si>
+  <si>
+    <t>Chỉ sửa họ tên theo đúng định dạng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chỉ sửa số điện thoại theo đúng định dạng </t>
+  </si>
+  <si>
+    <t>CASE 147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chỉ sửa địa chỉ theo đúng định dạng </t>
+  </si>
+  <si>
+    <t>TC_147</t>
+  </si>
+  <si>
+    <t>Đã thanh toán</t>
+  </si>
+  <si>
+    <t>vào chức năng chỉnh sửa và sửa lại thông tin bằng để trống toàn bộ</t>
+  </si>
+  <si>
+    <t>Chỉ sửa họ tên sai định dạng</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa số điện thoại sai định dạng</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa địa chỉ sai định dạng</t>
+  </si>
+  <si>
+    <t>TC_148</t>
+  </si>
+  <si>
+    <t>Không thể sửa vì đơn ko tồn tại</t>
+  </si>
+  <si>
+    <t>TC_149</t>
+  </si>
+  <si>
+    <t>TC_150</t>
+  </si>
+  <si>
+    <t>Check and change status 
+Purchase order</t>
+  </si>
+  <si>
+    <t>Vào xem được =&gt; button thanh toán cho phép nhấn
+=&gt; nhấn xong thì đổi trạng thái</t>
+  </si>
+  <si>
+    <t>Vào xem được =&gt;&gt; button thanh toán ko cho phép
+nhấn =&gt; hiện thông báo đã thanh toán</t>
+  </si>
+  <si>
+    <t>TC_151</t>
+  </si>
+  <si>
+    <t>Add role group</t>
+  </si>
+  <si>
+    <t>Nhập tiêu đề và mô tả đúng định dạng theo đặc tả</t>
+  </si>
+  <si>
+    <t>TC_152</t>
+  </si>
+  <si>
+    <t>Để trống các ô thông tin</t>
+  </si>
+  <si>
+    <t>TC_153</t>
+  </si>
+  <si>
+    <t>Để trống ô tiêu đề</t>
+  </si>
+  <si>
+    <t>TC_154</t>
+  </si>
+  <si>
+    <t>Để trống ô thông tin</t>
+  </si>
+  <si>
+    <t>TC_155</t>
+  </si>
+  <si>
+    <t>Ô tiêu đề sai định dạng</t>
+  </si>
+  <si>
+    <t>TC_156</t>
+  </si>
+  <si>
+    <t>Ô thông tin sai định dạng</t>
+  </si>
+  <si>
+    <t>TC_157</t>
+  </si>
+  <si>
+    <t>Ô tiêu đề trùng với tên nhóm quyền đã có</t>
+  </si>
+  <si>
+    <t>Edit role group</t>
+  </si>
+  <si>
+    <t>TC_158</t>
+  </si>
+  <si>
+    <t>TC_159</t>
+  </si>
+  <si>
+    <t>Sửa các trường theo đúng định dạng đặc tả</t>
+  </si>
+  <si>
+    <t>Sửa ô tiêu đề đúng định dạng và ko trùng với
+tiêu đề đã có</t>
+  </si>
+  <si>
+    <t>TC_160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sửa ô mô tả đúng định dạng </t>
+  </si>
+  <si>
+    <t>TC_161</t>
+  </si>
+  <si>
+    <t>Bỏ trống ô tiêu đề mà mô tả</t>
+  </si>
+  <si>
+    <t>Delete a role group</t>
+  </si>
+  <si>
+    <t>Xóa tất cả tài khoảng thuộc nhóm quyền đó</t>
+  </si>
+  <si>
+    <t>Admin 1 đã xóa thành công.
+Admin 2 ấn vào sửa trạng thái =&gt; hiện thông báo nhóm quyền đã xóa ko thể sửa trạng thái</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin 1 đã xóa thành công.
+Admin 2 ấn vào nút xóa =&gt; hiện thông báo nhóm quyền ko tồn tại, ko thể xóa </t>
+  </si>
+  <si>
+    <t>Không thể xóa quyền quản trị viên</t>
+  </si>
+  <si>
+    <t>CASE 84</t>
+  </si>
+  <si>
+    <t>Thêm thành công
+1 role mới. Ví dụ:
+nhân viên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sau khi tick chọn những quyền trong bảng phân 
+quyền, các quyền của nhân viên có thể có khớp với
+những quyền mà admin đã phân chia
+</t>
+  </si>
+  <si>
+    <t>CASR 85</t>
+  </si>
+  <si>
+    <t>Ko thể sửa quyền của admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: khi thành công thì 
+quyền mới xuất hiện trong mục phân quyền khi thêm tài khoảng thuộc phía quản lý, admin
+</t>
+  </si>
+  <si>
+    <t>Sau khi bỏ tick chọn những chọn những quyền trong 
+bảng phân quyền, các quyền của nhân viên có trước 
+đó bị hủy bỏ</t>
+  </si>
+  <si>
+    <t>Role division</t>
+  </si>
+  <si>
+    <t>Edit Role group</t>
+  </si>
+  <si>
+    <t>Phân chia quyền quản trị 
+(có các chức năng của quyền quản trị)</t>
+  </si>
+  <si>
+    <t>Phân chia quyền nhân viên
+(có các chức năng của quyền nhân viên)</t>
+  </si>
+  <si>
+    <t>Đổi trạng thái
+dừng hoạt động</t>
+  </si>
+  <si>
+    <t>Ko thể phân chia quyền</t>
+  </si>
+  <si>
+    <t>Các thông tin 
+user thêm mớihợp lệ</t>
+  </si>
+  <si>
+    <t>Các thông tin 
+user thêm mới hợp lệ</t>
   </si>
 </sst>
 </file>
@@ -946,7 +1826,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -965,6 +1845,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -979,7 +1865,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1020,15 +1906,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1052,6 +1929,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1368,22 +2263,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674C0DEC-06D0-469B-89B6-55471FDACAE3}">
-  <dimension ref="A1:K148"/>
+  <dimension ref="A1:K347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E146" sqref="E146"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A348" sqref="A348:XFD348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" style="4" customWidth="1"/>
     <col min="4" max="4" width="18.21875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="47.44140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="37.44140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="45.88671875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="33.77734375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" style="4" customWidth="1"/>
     <col min="9" max="9" width="21.21875" style="4" customWidth="1"/>
     <col min="10" max="10" width="18.21875" style="4" customWidth="1"/>
     <col min="11" max="11" width="17.5546875" style="4" customWidth="1"/>
@@ -1397,10 +2292,10 @@
       <c r="B1" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="2" t="s">
         <v>46</v>
       </c>
@@ -1565,13 +2460,13 @@
     </row>
     <row r="16" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
-      <c r="B16" s="21"/>
+      <c r="B16" s="18"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="16"/>
+      <c r="D17" s="27"/>
     </row>
     <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
@@ -1766,7 +2661,7 @@
     </row>
     <row r="38" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
-      <c r="B38" s="21"/>
+      <c r="B38" s="18"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C39" s="12" t="s">
@@ -1912,7 +2807,7 @@
     </row>
     <row r="59" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="11"/>
-      <c r="B59" s="21"/>
+      <c r="B59" s="18"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C60" s="12" t="s">
@@ -1953,7 +2848,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>120</v>
       </c>
@@ -1967,7 +2862,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>141</v>
       </c>
@@ -2022,7 +2917,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E74" s="5"/>
     </row>
     <row r="75" spans="1:7" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2041,7 +2936,7 @@
     </row>
     <row r="76" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="11"/>
-      <c r="B76" s="21"/>
+      <c r="B76" s="18"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C77" s="12" t="s">
@@ -2073,9 +2968,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="17"/>
-      <c r="B81" s="22"/>
+    <row r="81" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="14"/>
+      <c r="B81" s="19"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" s="12" t="s">
@@ -2135,9 +3030,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="17"/>
-      <c r="B90" s="22"/>
+    <row r="90" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="14"/>
+      <c r="B90" s="19"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" s="12" t="s">
@@ -2190,7 +3085,7 @@
       <c r="A98" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B98" s="19" t="s">
+      <c r="B98" s="16" t="s">
         <v>190</v>
       </c>
       <c r="D98" s="4" t="s">
@@ -2204,7 +3099,7 @@
       <c r="A100" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B100" s="19" t="s">
+      <c r="B100" s="16" t="s">
         <v>190</v>
       </c>
       <c r="D100" s="4" t="s">
@@ -2218,7 +3113,7 @@
       <c r="A102" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="B102" s="19" t="s">
+      <c r="B102" s="16" t="s">
         <v>190</v>
       </c>
       <c r="D102" s="4" t="s">
@@ -2229,7 +3124,7 @@
       <c r="A104" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B104" s="19" t="s">
+      <c r="B104" s="16" t="s">
         <v>188</v>
       </c>
       <c r="D104" s="4" t="s">
@@ -2294,9 +3189,9 @@
         <v>212</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="17"/>
-      <c r="B115" s="22"/>
+    <row r="115" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="14"/>
+      <c r="B115" s="19"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B116" s="9" t="s">
@@ -2314,12 +3209,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="17"/>
-      <c r="B118" s="22"/>
-    </row>
-    <row r="119" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="23" t="s">
+    <row r="118" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="14"/>
+      <c r="B118" s="19"/>
+    </row>
+    <row r="119" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="20" t="s">
         <v>225</v>
       </c>
       <c r="B119" s="9" t="s">
@@ -2451,102 +3346,2080 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="17"/>
-      <c r="B133" s="22"/>
+    <row r="133" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="14"/>
+      <c r="B133" s="19"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C134" s="12" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>138</v>
       </c>
       <c r="D135" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A136" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D136" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="E135" s="5" t="s">
-        <v>245</v>
+      <c r="E136" s="5" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>137</v>
+        <v>249</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A138" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" s="10" t="s">
-        <v>247</v>
+        <v>347</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+        <v>348</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A140" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A141" s="10" t="s">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>254</v>
+        <v>361</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A144" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D150" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="D143" s="4" t="s">
+      <c r="E150" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A151" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="14"/>
+      <c r="B152" s="19"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C153" s="12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="E143" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="17"/>
-      <c r="B144" s="22"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C145" s="12" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146" s="10" t="s">
+      <c r="C154" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D154" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="E154" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D146" s="4" t="s">
+    </row>
+    <row r="156" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A156" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="B156" s="16"/>
+      <c r="D156" s="4" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148" s="10" t="s">
+      <c r="E156" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B157" s="16"/>
+    </row>
+    <row r="158" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A158" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="B158" s="16"/>
+      <c r="D158" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B159" s="16"/>
+      <c r="E159" s="5"/>
+    </row>
+    <row r="160" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A160" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B160" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B161" s="16"/>
+      <c r="E161" s="5"/>
+    </row>
+    <row r="162" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A162" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B162" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B163" s="16"/>
+      <c r="E163" s="5"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A170" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B170" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="11"/>
+      <c r="B173" s="18"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C174" s="12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A177" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B177" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A179" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B179" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="11"/>
+      <c r="B180" s="18"/>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C181" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A182" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I182" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A186" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F186" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A188" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" spans="1:9" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F192" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E193" s="5"/>
+    </row>
+    <row r="194" spans="1:7" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E195" s="5"/>
+    </row>
+    <row r="196" spans="1:7" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F196" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G196" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="11"/>
+      <c r="B197" s="18"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C198" s="12" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A199" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A201" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="F201" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A203" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="F203" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A205" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F205" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A207" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E207" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="F207" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A209" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="F209" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A211" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="11"/>
+      <c r="B212" s="18"/>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C213" s="12" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="C214" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D148" s="4" t="s">
-        <v>259</v>
+      <c r="D214" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A215" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E215" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A216" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E216" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A217" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="E217" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A218" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A219" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E219" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="E220" s="5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="E221" s="5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C224" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E224" s="5"/>
+    </row>
+    <row r="225" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A225" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="E225" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="E227" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E228" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="E229" s="5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E230" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E231" s="5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E232" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="11"/>
+      <c r="B233" s="18"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C234" s="12" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="E235" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A236" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="B236" s="16"/>
+      <c r="D236" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E236" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A237" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="B237" s="16"/>
+      <c r="D237" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E237" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A238" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="B238" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="D238" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E238" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A239" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="B239" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="D239" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E239" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A240" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="B240" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="D240" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E240" s="5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A241" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="B241" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="D241" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E241" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D242" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E242" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="D243" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E243" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="D244" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E244" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="D245" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E245" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="D246" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E246" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E247" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="D248" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E248" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="D249" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E249" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A250" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B250" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="D250" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E250" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="11"/>
+      <c r="B251" s="18"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C252" s="12" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D253" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E253" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A254" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B254" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D254" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E254" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A255" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B255" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="D255" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E255" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="11"/>
+      <c r="B256" s="18"/>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C257" s="12" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A258" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D258" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E258" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F258" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I258" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="D259" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E259" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="F259" s="5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A260" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="D260" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E260" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="F260" s="5" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A261" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="D261" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E261" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="F261" s="5" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A262" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="D262" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E262" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="F262" s="5" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A263" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="D263" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="E263" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="F263" s="5" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D264" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E264" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F264" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="D265" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E265" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F265" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="D266" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E266" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F266" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="D267" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E267" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F267" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G267" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="22"/>
+      <c r="B268" s="23"/>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C269" s="12" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A270" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="C270" s="12"/>
+      <c r="D270" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="E270" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F270" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="D271" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="E271" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="F271" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="D272" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="E272" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="F272" s="5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="22"/>
+      <c r="B273" s="23"/>
+    </row>
+    <row r="274" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A274" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="C274" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="D274" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="E274" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="F274" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A275" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="D275" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="E275" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="F275" s="5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="22"/>
+      <c r="B276" s="23"/>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C277" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A278" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D278" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E278" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A279" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B279" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D279" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E279" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A280" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B280" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="D280" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E280" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="22"/>
+      <c r="B281" s="23"/>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C282" s="12" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A283" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D283" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E283" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F283" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="I283" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="D284" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E284" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="F284" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A285" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="D285" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E285" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="F285" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A286" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="D286" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E286" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="F286" s="5" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="C287" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D287" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E287" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="F287" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="D288" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E288" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="F288" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="D289" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E289" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="F289" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="D290" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E290" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F290" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G290" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="22"/>
+      <c r="B291" s="23"/>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C292" s="12" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A293" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="D293" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="E293" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="F293" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A294" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="D294" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="E294" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="F294" s="5" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A295" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="D295" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="E295" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="F295" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="22"/>
+      <c r="B296" s="23"/>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C297" s="12" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A298" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="B298" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="C298" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D298" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="E298" s="5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A299" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="B299" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="D299" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="E299" s="4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A300" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="B300" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="D300" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="E300" s="4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B301" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="D301" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="E301" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C302" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A303" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="B303" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="D303" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="E303" s="5" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A304" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="B304" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="D304" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="E304" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A305" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="B305" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="D305" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="E305" s="4" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A306" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="B306" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="D306" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="E306" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A307" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="B307" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="D307" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="E307" s="4" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A308" s="22"/>
+      <c r="B308" s="23"/>
+    </row>
+    <row r="309" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C309" s="13" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A310" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="B310" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="C310" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E310" s="5" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A311" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="B311" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="E311" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A312" s="22"/>
+      <c r="B312" s="23"/>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C313" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A314" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="C314" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E314" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="F314" s="5" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A315" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="C315" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E315" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A316" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="E316" s="4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A317" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="E317" s="4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A318" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="E318" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A319" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="E319" s="4" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A320" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="E320" s="4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="22"/>
+      <c r="B321" s="23"/>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C322" s="12" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A323" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="C323" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E323" s="4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A324" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="E324" s="5" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A325" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="E325" s="4" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A326" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="C326" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E326" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A327" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="E327" s="4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A328" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="E328" s="4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A329" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="E329" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A330" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="E330" s="4" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A331" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="E331" s="4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A332" s="22"/>
+      <c r="B332" s="23"/>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C333" s="12" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A334" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="C334" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E334" s="4" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A335" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B335" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="C335" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D335" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E335" s="5" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A336" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B336" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="D336" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E336" s="5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A337" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="D337" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E337" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="22"/>
+      <c r="B338" s="23"/>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C339" s="12" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A340" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="B340" s="16" t="s">
+        <v>521</v>
+      </c>
+      <c r="C340" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D340" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="E340" s="5" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A341" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B341" s="16" t="s">
+        <v>521</v>
+      </c>
+      <c r="D341" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="E341" s="5" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A342" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="C342" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E342" s="4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A343" s="22"/>
+      <c r="B343" s="23"/>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C344" s="12" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A345" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="B345" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="C345" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E345" s="5" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A346" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B346" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="E346" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A347" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="B347" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="C347" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E347" s="4" t="s">
+        <v>532</v>
       </c>
     </row>
   </sheetData>

--- a/tests/function_test_cases.xlsx
+++ b/tests/function_test_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project-managerTest\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0E88AA-79CD-4175-840C-8B94F29654F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB6E8B4-02B8-498A-9891-D36FC0B4C01D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6077393B-3550-45E2-89E5-1A86BDF8BB4A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6077393B-3550-45E2-89E5-1A86BDF8BB4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="671">
   <si>
     <t>TEST_LOGIN</t>
   </si>
@@ -1968,13 +1968,369 @@
   </si>
   <si>
     <t>BUG IMAGE</t>
+  </si>
+  <si>
+    <t>Windows
+Microsoft Edge
+Fire Fox</t>
+  </si>
+  <si>
+    <t>Bước 1: Khách hàng truy cập  https://storecs.vercel.app/
+Bước 2: Chọn Đăng nhập
+Bước 3: Nhập đúng tài khoản và mật khẩu đã đăng kí</t>
+  </si>
+  <si>
+    <t>Đăng nhập với vai tro ADMIN
+thành công</t>
+  </si>
+  <si>
+    <t>Chức năng tìm kiếm sản phẩm với ô tìm kiếm không chứa từ khóa</t>
+  </si>
+  <si>
+    <t>1: Khách hàng truy cập vào trang web "https://storecs.vercel.app/"
+2: Không nhập từ khóa vào ô tìm kiếm
+3: ấn vào "Tìm kiếm"</t>
+  </si>
+  <si>
+    <t>Trả về tất cả các sản phẩm hiện có trong database</t>
+  </si>
+  <si>
+    <t>Keyword: blank</t>
+  </si>
+  <si>
+    <t>Google Chrome 
+Microsoft Edge 
+Fire Fox</t>
+  </si>
+  <si>
+    <t>Chức năng tìm kiếm sản phẩm với ô tìm kiếm chưa 1 kí tự bất kì
+xuất hiện trong tên sản phẩm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: Khách hàng truy cập vào trang web "https://storecs.vercel.app/"
+2: Nhập 1 kí tự xuất hiện trong tên sản phẩm vào ô tìm kiếm
+3: ấn vào "Tìm kiếm"
+</t>
+  </si>
+  <si>
+    <t>Trả về các sản phẩm có chứa kí tự đó như đã nhập ở thanh tìm kiếm</t>
+  </si>
+  <si>
+    <t>Keyword: "I" (Iphone)</t>
+  </si>
+  <si>
+    <t>Chức năng tìm kiếm sản phẩm với ô tìm kiếm chứa 1 chuỗi kí tự
+liên tiếp xuất hiện trong tên sản phẩm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: Khách hàng truy cập vào trang web "https://storecs.vercel.app/"
+2: Nhập 1 chuỗi kí tự liên tiếp xuất hiện trong tên 
+sản phẩm vào ô tìm kiếm
+3: ấn vào "Tìm kiếm"
+</t>
+  </si>
+  <si>
+    <t>Trả về các sản phẩm có chứa chuỗi kí tự đó như đã nhập ở thanh tìm kiếm</t>
+  </si>
+  <si>
+    <t>Keyword: "pho" (Iphone)</t>
+  </si>
+  <si>
+    <t>Chức năng tìm kiếm sản phẩm với ô tìm kiếm chứa tên chính xác
+sản phẩm cần tìm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: Khách hàng truy cập vào trang web "https://storecs.vercel.app/"
+2: Nhập tên chính xác 1 sản phẩm có trong cửa hàng vào ô tìm kiếm
+3: ấn vào "Tìm kiếm"
+</t>
+  </si>
+  <si>
+    <t>Trả về chính xác theo tên sản phẩm như đã nhập ở thanh tìm kiếm</t>
+  </si>
+  <si>
+    <t>Keyword: "Iphone 15"</t>
+  </si>
+  <si>
+    <t>Chức năng tìm kiếm sản phẩm với ô tìm kiếm chứa 1 kí tự bất kì
+không xuất hiện trong tên sản phẩm</t>
+  </si>
+  <si>
+    <t>1: Khách hàng truy cập vào trang web "https://storecs.vercel.app/"
+2: Nhập 1 kí tự bất kì không xuất hiện trong tên sản phẩm vào ô tìm kiếm
+3: ấn vào "Tìm kiếm"</t>
+  </si>
+  <si>
+    <t>Trả về kết quả "Không tìm thấy sản phẩm nào"</t>
+  </si>
+  <si>
+    <t>Keyword: "z"</t>
+  </si>
+  <si>
+    <t>Chức năng tìm kiếm sản phẩm với ô tìm kiếm chứa 1 chuỗi kí tự 
+liên tiếp không xuất hiện trong tên sản phẩm</t>
+  </si>
+  <si>
+    <t>1: Khách hàng truy cập vào trang web "https://storecs.vercel.app/"
+2: Nhập 1 chuỗi kí tự liên tiếp không xuất hiện trong tên 
+sản phẩm vào ô tìm kiếm
+3: ấn vào "Tìm kiếm"</t>
+  </si>
+  <si>
+    <t>Keyword: "exe"</t>
+  </si>
+  <si>
+    <t>Chức năng tìm kiếm sản phẩm với ô tìm kiếm chứa tên sản phẩm
+không xuất hiện trong cửa hàng</t>
+  </si>
+  <si>
+    <t>1: Khách hàng truy cập vào trang web "https://storecs.vercel.app/"
+2: Nhập tên chính xác 1 sản phẩm không có trong cửa hàng vào ô 
+tìm kiếm
+3: ấn vào "Tìm kiếm"</t>
+  </si>
+  <si>
+    <t>Keyword: "Mercedes"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chức năng tìm kiếm sản phẩm với ô tìm kiếm chứa các kí tự là
+khoảng trắgn 
+</t>
+  </si>
+  <si>
+    <t>1: Khách hàng truy cập vào trang web "https://storecs.vercel.app/"
+2: Nhập các kí tự là các khoảng trắng vào ô tìm kiếm
+3: ấn vào "Tìm kiếm"</t>
+  </si>
+  <si>
+    <t>Keyword: " "</t>
+  </si>
+  <si>
+    <t>Đăng nhập với vai trò ADMIN 
+thành công</t>
+  </si>
+  <si>
+    <t>Xóa danh mục sản phẩm thông qua button "Xóa"</t>
+  </si>
+  <si>
+    <t>1: Admin truy cập vào trang quản lý 
+"https://storecs.vercel.app/admin/auth/login"
+2: Đăng nhập 
+3: Chọn "Danh mục sản phẩm"
+4: Chọn "Xóa"
+5: Chọn "OK" =&gt; Xác nhận xóa</t>
+  </si>
+  <si>
+    <t>Xuất hiện thông báo "Xóa danh mục thành công"
+Xóa khỏi danh mục đó trong hiển thị danh sách danh mục</t>
+  </si>
+  <si>
+    <t>Hai admin đồng thời thực hiện 
+xóa 1 danh sách sản phẩm cùng 
+lúc</t>
+  </si>
+  <si>
+    <t>1: Admin 1 và Admin 2 cùng đăng nhập vào hệ thống quản lý cùng 1 thời
+điểm
+2: Admin 1 xóa thành công 1 danh mục sản phẩm
+3: Admin 2 thực hiện xóa danh mục đã được Admin 1 vừa thực hiện xóa</t>
+  </si>
+  <si>
+    <t>Tại màn hình danh mục sản phẩm của Admin 2 hiện thông báo:
+"sản phẩm ko tồn tại, ko thể xóa"</t>
+  </si>
+  <si>
+    <t>1: Admin 1 và Admin 2 cùng đăng nhập vào hệ thống quản lý cùng 1 thời
+điểm
+2: Admin 1 "xóa" thành công 1 danh mục sản phẩm
+3: Admin 2 thực hiện "sửa" danh mục đã được Admin 1 vừa thực hiện "xóa"</t>
+  </si>
+  <si>
+    <t>Tại màn hình danh mục sản phẩm của Admin 2 hiện thông báo:
+"hiện thông báo nhóm sp đã xóa, ko thể sửa"</t>
+  </si>
+  <si>
+    <t>Chức năng Lọc sản phẩm với chọn "Tất cả"</t>
+  </si>
+  <si>
+    <t>1: Admin truy cập vào trang quản lý 
+"https://storecs.vercel.app/admin/auth/login"
+2: Đăng nhập 
+3: Chọn "Danh sách sản phẩm"
+4: Tại nhóm chức năng "Sắp xếp" chọn "Tất cả"</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Google Chrome
+Microsoft Edge
+Fire Fox</t>
+  </si>
+  <si>
+    <t>Chức năng Lọc sản phẩm với chọn "Hoạt động"</t>
+  </si>
+  <si>
+    <t>1: Admin truy cập vào trang quản lý 
+"https://storecs.vercel.app/admin/auth/login"
+2: Đăng nhập 
+3: Chọn "Danh sách sản phẩm"
+4: Tại nhóm chức năng "Sắp xếp" chọn "Hoạt động"</t>
+  </si>
+  <si>
+    <t>Hiển thị toàn bộ danh sách 
+sản phẩm đang hoạt động</t>
+  </si>
+  <si>
+    <t>Chức năng Lọc sản phẩm với chọn "Dừng hoạt động"</t>
+  </si>
+  <si>
+    <t>1: Admin truy cập vào trang quản lý 
+"https://storecs.vercel.app/admin/auth/login"
+2: Đăng nhập 
+3: Chọn "Danh sách sản phẩm"
+4: Tại nhóm chức năng "Sắp xếp" chọn "Dừng hoạt động"</t>
+  </si>
+  <si>
+    <t>Hiển thị toàn bộ danh sách 
+sản phẩm dừng hoạt động</t>
+  </si>
+  <si>
+    <t>Chức năng Lọc sản phẩm với chọn "Sắp xếp vị trí tăng dần"</t>
+  </si>
+  <si>
+    <t>1: Admin truy cập vào trang quản lý 
+"https://storecs.vercel.app/admin/auth/login"
+2: Đăng nhập 
+3: Chọn "Danh sách sản phẩm"
+4: Tại nhóm chức năng "Sắp xếp" chọn "Sắp xếp vị trí tăng dần"</t>
+  </si>
+  <si>
+    <t>Hiển thị toàn bộ danh sách 
+sản phẩm theo vị trí tăng dần</t>
+  </si>
+  <si>
+    <t>Chức năng Lọc sản phẩm với chọn "Sắp xếp vị trí giảm dần"</t>
+  </si>
+  <si>
+    <t>1: Admin truy cập vào trang quản lý 
+"https://storecs.vercel.app/admin/auth/login"
+2: Đăng nhập 
+3: Chọn "Danh sách sản phẩm"
+4: Tại nhóm chức năng "Sắp xếp" chọn "Sắp xếp vị trí giảm dần"</t>
+  </si>
+  <si>
+    <t>Hiển thị toàn bộ danh sách 
+sản phẩm theo vị trí giảm dần</t>
+  </si>
+  <si>
+    <t>Chức năng Lọc sản phẩm với chọn "Sắp xếp theo giá tăng dần"</t>
+  </si>
+  <si>
+    <t>1: Admin truy cập vào trang quản lý 
+"https://storecs.vercel.app/admin/auth/login"
+2: Đăng nhập 
+3: Chọn "Danh sách sản phẩm"
+4: Tại nhóm chức năng "Sắp xếp" chọn "Sắp xếp theo giá tăng dần"</t>
+  </si>
+  <si>
+    <t>Hiển thị toàn bộ danh sách 
+sản phẩm theo giá tăng dần</t>
+  </si>
+  <si>
+    <t>Chức năng Lọc sản phẩm với chọn "Sắp xếp theo giá giảm dần"</t>
+  </si>
+  <si>
+    <t>1: Admin truy cập vào trang quản lý 
+"https://storecs.vercel.app/admin/auth/login"
+2: Đăng nhập 
+3: Chọn "Danh sách sản phẩm"
+4: Tại nhóm chức năng "Sắp xếp" chọn "Sắp xếp theo giá giảm dần"</t>
+  </si>
+  <si>
+    <t>Hiển thị toàn bộ danh sách 
+sản phẩm theo giá giảm dần</t>
+  </si>
+  <si>
+    <t>19. Kiểm thử chức năng Chỉnh sửa trạng thái khách hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chuyển trạng thái Hoạt động -&gt; Không hoạt động
+</t>
+  </si>
+  <si>
+    <t>1: Admin truy cập vào trang quản lý 
+"https://storecs.vercel.app/admin/auth/login"
+2: Đăng nhập 
+3: Chọn "Danh sách tài khoản khách hàng"
+4: Chọn thay đổi trạng thái Hoạt động -&gt; Không hoạt động tại cột Trạng
+thái</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chuyển trạng thái Không hoạt động -&gt; Hoạt động
+</t>
+  </si>
+  <si>
+    <t>1: Admin truy cập vào trang quản lý 
+"https://storecs.vercel.app/admin/auth/login"
+2: Đăng nhập 
+3: Chọn "Danh sách tài khoản khách hàng"
+4: Chọn thay đổi trạng thái Không hoạt động -&gt; Hoạt động tại cột Trạng
+thái</t>
+  </si>
+  <si>
+    <t>Xóa sản phẩm tồn tại trong danh sách</t>
+  </si>
+  <si>
+    <t>1: Admin truy cập vào trang quản lý 
+"https://storecs.vercel.app/admin/auth/login"
+2: Đăng nhập 
+3: Chọn "Danh sách sản phẩm"
+4: Chọn "Xóa"
+5: Chọn "OK" =&gt; Xác nhận xóa</t>
+  </si>
+  <si>
+    <t>Xuất hiện thông báo "Xóa sản phẩm thành công"
+Xóa sản phẩm đó khỏ danh sách sản phẩm</t>
+  </si>
+  <si>
+    <t>Hai admin đồng thời thực hiện 
+xóa 1 sản phẩm cùng 
+lúc</t>
+  </si>
+  <si>
+    <t>1: Admin 1 và Admin 2 cùng đăng nhập vào hệ thống quản lý cùng 1 thời
+điểm
+2: Admin 1 xóa thành công 1 sản phẩm
+3: Admin 2 thực hiện xóa sản phẩm đã được Admin 1 vừa thực hiện xóa</t>
+  </si>
+  <si>
+    <t>Tại màn hình danh sách sản phẩm của Admin 2 hiện thông báo:
+"sản phẩm ko tồn tại, ko thể xóa"</t>
+  </si>
+  <si>
+    <t>Hai admin đồng thời thực hiện 
+đăng nhập vào trang quản lý sản
+phẩm. Admin 1 thực hiện xóa sản
+phẩm. Admin 2 sửa sản phẩm vừa
+xóa bởi Admin 1</t>
+  </si>
+  <si>
+    <t>1: Admin 1 và Admin 2 cùng đăng nhập vào hệ thống quản lý cùng 1 thời
+điểm
+2: Admin 1 "xóa" thành công 1 sản phẩm
+3: Admin 2 thực hiện "sửa" sản phẩm đã được Admin 1 vừa thực hiện "xóa"</t>
+  </si>
+  <si>
+    <t>Tại màn hình danh sách sản phẩm của Admin 2 hiện thông báo:
+"hiện thông báo sản phẩm đã xóa, ko thể sửa"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2009,8 +2365,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2035,8 +2438,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2044,12 +2459,139 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2123,6 +2665,111 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2131,6 +2778,42 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2447,20 +3130,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674C0DEC-06D0-469B-89B6-55471FDACAE3}">
-  <dimension ref="A1:L271"/>
+  <dimension ref="A1:AI315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F246" sqref="F246"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="21" style="17" customWidth="1"/>
-    <col min="3" max="3" width="28.5546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="25" style="4" customWidth="1"/>
-    <col min="6" max="6" width="69.109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="53.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="34.77734375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="41.6640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="33.77734375" style="4" customWidth="1"/>
     <col min="8" max="8" width="26.44140625" style="4" customWidth="1"/>
     <col min="9" max="9" width="17.33203125" style="4" customWidth="1"/>
@@ -2477,10 +3160,10 @@
       <c r="B1" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="25"/>
+      <c r="D1" s="60"/>
       <c r="E1" s="2" t="s">
         <v>46</v>
       </c>
@@ -2522,7 +3205,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
@@ -2533,12 +3216,14 @@
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="G3" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="8" t="s">
+        <v>593</v>
+      </c>
       <c r="J3" s="4" t="s">
         <v>18</v>
       </c>
@@ -2559,7 +3244,9 @@
       <c r="G4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="8" t="s">
+        <v>593</v>
+      </c>
       <c r="J4" s="4" t="s">
         <v>18</v>
       </c>
@@ -2577,7 +3264,9 @@
       <c r="G5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="8" t="s">
+        <v>593</v>
+      </c>
       <c r="J5" s="4" t="s">
         <v>18</v>
       </c>
@@ -2595,7 +3284,9 @@
       <c r="G6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="8" t="s">
+        <v>593</v>
+      </c>
       <c r="J6" s="4" t="s">
         <v>18</v>
       </c>
@@ -2613,7 +3304,9 @@
       <c r="G7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="8" t="s">
+        <v>593</v>
+      </c>
       <c r="J7" s="4" t="s">
         <v>18</v>
       </c>
@@ -2631,7 +3324,9 @@
       <c r="G8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="8" t="s">
+        <v>593</v>
+      </c>
       <c r="J8" s="4" t="s">
         <v>18</v>
       </c>
@@ -2649,7 +3344,9 @@
       <c r="G9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="8" t="s">
+        <v>593</v>
+      </c>
       <c r="J9" s="4" t="s">
         <v>21</v>
       </c>
@@ -2659,10 +3356,10 @@
       <c r="B10" s="18"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="27"/>
+      <c r="D11" s="62"/>
     </row>
     <row r="12" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
@@ -2680,7 +3377,9 @@
       <c r="G12" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
@@ -2698,9 +3397,11 @@
       <c r="G13" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H13" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>59</v>
       </c>
@@ -2713,9 +3414,11 @@
       <c r="G14" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H14" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>48</v>
       </c>
@@ -2725,12 +3428,14 @@
       <c r="E15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H15" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>51</v>
       </c>
@@ -2743,9 +3448,11 @@
       <c r="G16" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H16" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>53</v>
       </c>
@@ -2758,22 +3465,27 @@
       <c r="G17" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="H17" s="5" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="B18" s="27"/>
+      <c r="D18" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="H18" s="5"/>
+      <c r="H18" s="29" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
@@ -2782,13 +3494,15 @@
       <c r="D19" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="29" t="s">
         <v>64</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H19" s="5"/>
+      <c r="H19" s="5" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
@@ -2803,7 +3517,9 @@
       <c r="G20" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H20" s="5"/>
+      <c r="H20" s="5" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
@@ -2818,7 +3534,9 @@
       <c r="G21" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="H21" s="5"/>
+      <c r="H21" s="5" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
@@ -2833,7 +3551,9 @@
       <c r="G22" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="H22" s="5"/>
+      <c r="H22" s="5" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
@@ -2848,7 +3568,9 @@
       <c r="G23" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="H23" s="5"/>
+      <c r="H23" s="5" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
@@ -2863,7 +3585,9 @@
       <c r="G24" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="H24" s="5"/>
+      <c r="H24" s="5" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
@@ -3123,7 +3847,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>157</v>
       </c>
@@ -3137,7 +3861,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>160</v>
       </c>
@@ -3157,7 +3881,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>164</v>
       </c>
@@ -3199,7 +3923,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>173</v>
       </c>
@@ -3219,7 +3943,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>176</v>
       </c>
@@ -3236,7 +3960,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>180</v>
       </c>
@@ -3275,7 +3999,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>193</v>
       </c>
@@ -3546,6 +4270,9 @@
       <c r="A85" s="10" t="s">
         <v>240</v>
       </c>
+      <c r="B85" s="16" t="s">
+        <v>595</v>
+      </c>
       <c r="C85" s="4" t="s">
         <v>138</v>
       </c>
@@ -3556,7 +4283,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
         <v>243</v>
       </c>
@@ -3567,7 +4294,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
         <v>246</v>
       </c>
@@ -3578,7 +4305,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
         <v>249</v>
       </c>
@@ -3589,7 +4316,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
         <v>343</v>
       </c>
@@ -3600,7 +4327,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
         <v>254</v>
       </c>
@@ -3611,7 +4338,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
         <v>256</v>
       </c>
@@ -3644,7 +4371,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
         <v>265</v>
       </c>
@@ -3691,7 +4418,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
         <v>278</v>
       </c>
@@ -3725,7 +4452,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
         <v>290</v>
       </c>
@@ -3737,7 +4464,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A103" s="10" t="s">
         <v>296</v>
       </c>
@@ -3840,9 +4567,9 @@
         <v>310</v>
       </c>
     </row>
-    <row r="112" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="11"/>
-      <c r="B112" s="18"/>
+    <row r="112" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="22"/>
+      <c r="B112" s="23"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C113" s="12" t="s">
@@ -3863,7 +4590,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="s">
         <v>321</v>
       </c>
@@ -4157,7 +4884,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A139" s="10" t="s">
         <v>352</v>
       </c>
@@ -4168,7 +4895,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A140" s="10" t="s">
         <v>353</v>
       </c>
@@ -4179,7 +4906,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A141" s="10" t="s">
         <v>356</v>
       </c>
@@ -4190,7 +4917,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A142" s="10" t="s">
         <v>356</v>
       </c>
@@ -4370,7 +5097,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A159" s="10" t="s">
         <v>535</v>
       </c>
@@ -4382,7 +5109,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A160" s="10" t="s">
         <v>536</v>
       </c>
@@ -4422,7 +5149,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A163" s="10" t="s">
         <v>539</v>
       </c>
@@ -4436,7 +5163,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A164" s="10" t="s">
         <v>540</v>
       </c>
@@ -4578,7 +5305,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A177" s="10" t="s">
         <v>546</v>
       </c>
@@ -4666,7 +5393,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A184" s="10" t="s">
         <v>551</v>
       </c>
@@ -4843,7 +5570,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A198" s="10" t="s">
         <v>432</v>
       </c>
@@ -4880,7 +5607,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A202" s="10" t="s">
         <v>467</v>
       </c>
@@ -4897,7 +5624,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A203" s="10" t="s">
         <v>468</v>
       </c>
@@ -4920,7 +5647,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A206" s="10" t="s">
         <v>474</v>
       </c>
@@ -5099,8 +5826,10 @@
       <c r="A219" s="22"/>
       <c r="B219" s="23"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C220" s="12" t="s">
+    <row r="220" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="50"/>
+      <c r="B220" s="51"/>
+      <c r="C220" s="52" t="s">
         <v>464</v>
       </c>
     </row>
@@ -5163,7 +5892,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A225" s="10" t="s">
         <v>556</v>
       </c>
@@ -5245,7 +5974,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A232" s="10" t="s">
         <v>561</v>
       </c>
@@ -5259,7 +5988,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A233" s="10" t="s">
         <v>562</v>
       </c>
@@ -5274,8 +6003,10 @@
       <c r="A234" s="22"/>
       <c r="B234" s="23"/>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C235" s="12" t="s">
+    <row r="235" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="54"/>
+      <c r="B235" s="55"/>
+      <c r="C235" s="56" t="s">
         <v>488</v>
       </c>
     </row>
@@ -5451,7 +6182,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A257" s="10" t="s">
         <v>580</v>
       </c>
@@ -5468,7 +6199,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A258" s="10" t="s">
         <v>581</v>
       </c>
@@ -5502,7 +6233,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A262" s="10" t="s">
         <v>583</v>
       </c>
@@ -5553,7 +6284,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A267" s="10" t="s">
         <v>586</v>
       </c>
@@ -5567,7 +6298,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A268" s="10" t="s">
         <v>587</v>
       </c>
@@ -5592,7 +6323,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A270" s="10" t="s">
         <v>589</v>
       </c>
@@ -5614,10 +6345,1097 @@
         <v>533</v>
       </c>
     </row>
+    <row r="273" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="274" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B274" s="30">
+        <f ca="1">B274:H283</f>
+        <v>0</v>
+      </c>
+      <c r="C274" s="31"/>
+      <c r="D274" s="31"/>
+      <c r="E274" s="31"/>
+      <c r="F274" s="63"/>
+      <c r="G274" s="64"/>
+      <c r="H274" s="65"/>
+      <c r="I274" s="31"/>
+      <c r="J274" s="31"/>
+      <c r="K274" s="31"/>
+      <c r="L274" s="31"/>
+      <c r="M274" s="31"/>
+      <c r="N274" s="31"/>
+      <c r="O274" s="31"/>
+      <c r="P274" s="32"/>
+      <c r="Q274" s="32"/>
+      <c r="R274" s="32"/>
+      <c r="S274" s="32"/>
+      <c r="T274" s="32"/>
+      <c r="U274" s="32"/>
+      <c r="V274" s="32"/>
+      <c r="W274" s="32"/>
+      <c r="X274" s="32"/>
+      <c r="Y274" s="32"/>
+      <c r="Z274" s="32"/>
+      <c r="AA274" s="32"/>
+      <c r="AB274" s="32"/>
+      <c r="AC274" s="32"/>
+      <c r="AD274" s="32"/>
+      <c r="AE274" s="32"/>
+      <c r="AF274" s="32"/>
+      <c r="AG274" s="32"/>
+      <c r="AH274" s="32"/>
+      <c r="AI274" s="32"/>
+    </row>
+    <row r="275" spans="2:35" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B275" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C275" s="34"/>
+      <c r="D275" s="35" t="s">
+        <v>596</v>
+      </c>
+      <c r="E275" s="35" t="s">
+        <v>597</v>
+      </c>
+      <c r="F275" s="66" t="s">
+        <v>598</v>
+      </c>
+      <c r="G275" s="67"/>
+      <c r="H275" s="68"/>
+      <c r="I275" s="35" t="s">
+        <v>599</v>
+      </c>
+      <c r="J275" s="35" t="s">
+        <v>600</v>
+      </c>
+      <c r="K275" s="34"/>
+      <c r="L275" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="M275" s="34"/>
+      <c r="N275" s="34"/>
+      <c r="O275" s="34"/>
+      <c r="P275" s="32"/>
+      <c r="Q275" s="32"/>
+      <c r="R275" s="32"/>
+      <c r="S275" s="32"/>
+      <c r="T275" s="32"/>
+      <c r="U275" s="32"/>
+      <c r="V275" s="32"/>
+      <c r="W275" s="32"/>
+      <c r="X275" s="32"/>
+      <c r="Y275" s="32"/>
+      <c r="Z275" s="32"/>
+      <c r="AA275" s="32"/>
+      <c r="AB275" s="32"/>
+      <c r="AC275" s="32"/>
+      <c r="AD275" s="32"/>
+      <c r="AE275" s="32"/>
+      <c r="AF275" s="32"/>
+      <c r="AG275" s="32"/>
+      <c r="AH275" s="32"/>
+      <c r="AI275" s="32"/>
+    </row>
+    <row r="276" spans="2:35" ht="83.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B276" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C276" s="34"/>
+      <c r="D276" s="35" t="s">
+        <v>601</v>
+      </c>
+      <c r="E276" s="35" t="s">
+        <v>602</v>
+      </c>
+      <c r="F276" s="66" t="s">
+        <v>603</v>
+      </c>
+      <c r="G276" s="67"/>
+      <c r="H276" s="68"/>
+      <c r="I276" s="35" t="s">
+        <v>604</v>
+      </c>
+      <c r="J276" s="35" t="s">
+        <v>600</v>
+      </c>
+      <c r="K276" s="34"/>
+      <c r="L276" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="M276" s="34"/>
+      <c r="N276" s="34"/>
+      <c r="O276" s="34"/>
+      <c r="P276" s="32"/>
+      <c r="Q276" s="32"/>
+      <c r="R276" s="32"/>
+      <c r="S276" s="32"/>
+      <c r="T276" s="32"/>
+      <c r="U276" s="32"/>
+      <c r="V276" s="32"/>
+      <c r="W276" s="32"/>
+      <c r="X276" s="32"/>
+      <c r="Y276" s="32"/>
+      <c r="Z276" s="32"/>
+      <c r="AA276" s="32"/>
+      <c r="AB276" s="32"/>
+      <c r="AC276" s="32"/>
+      <c r="AD276" s="32"/>
+      <c r="AE276" s="32"/>
+      <c r="AF276" s="32"/>
+      <c r="AG276" s="32"/>
+      <c r="AH276" s="32"/>
+      <c r="AI276" s="32"/>
+    </row>
+    <row r="277" spans="2:35" ht="97.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B277" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C277" s="34"/>
+      <c r="D277" s="35" t="s">
+        <v>605</v>
+      </c>
+      <c r="E277" s="35" t="s">
+        <v>606</v>
+      </c>
+      <c r="F277" s="66" t="s">
+        <v>607</v>
+      </c>
+      <c r="G277" s="67"/>
+      <c r="H277" s="68"/>
+      <c r="I277" s="35" t="s">
+        <v>608</v>
+      </c>
+      <c r="J277" s="35" t="s">
+        <v>600</v>
+      </c>
+      <c r="K277" s="34"/>
+      <c r="L277" s="34"/>
+      <c r="M277" s="34"/>
+      <c r="N277" s="34"/>
+      <c r="O277" s="34"/>
+      <c r="P277" s="36"/>
+      <c r="Q277" s="36"/>
+      <c r="R277" s="36"/>
+      <c r="S277" s="36"/>
+      <c r="T277" s="32"/>
+      <c r="U277" s="32"/>
+      <c r="V277" s="32"/>
+      <c r="W277" s="32"/>
+      <c r="X277" s="32"/>
+      <c r="Y277" s="32"/>
+      <c r="Z277" s="32"/>
+      <c r="AA277" s="32"/>
+      <c r="AB277" s="32"/>
+      <c r="AC277" s="32"/>
+      <c r="AD277" s="32"/>
+      <c r="AE277" s="32"/>
+      <c r="AF277" s="32"/>
+      <c r="AG277" s="32"/>
+      <c r="AH277" s="32"/>
+      <c r="AI277" s="32"/>
+    </row>
+    <row r="278" spans="2:35" ht="83.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B278" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C278" s="34"/>
+      <c r="D278" s="35" t="s">
+        <v>609</v>
+      </c>
+      <c r="E278" s="35" t="s">
+        <v>610</v>
+      </c>
+      <c r="F278" s="66" t="s">
+        <v>611</v>
+      </c>
+      <c r="G278" s="67"/>
+      <c r="H278" s="68"/>
+      <c r="I278" s="35" t="s">
+        <v>612</v>
+      </c>
+      <c r="J278" s="35" t="s">
+        <v>600</v>
+      </c>
+      <c r="K278" s="34"/>
+      <c r="L278" s="34"/>
+      <c r="M278" s="34"/>
+      <c r="N278" s="34"/>
+      <c r="O278" s="34"/>
+      <c r="P278" s="32"/>
+      <c r="Q278" s="32"/>
+      <c r="R278" s="32"/>
+      <c r="S278" s="32"/>
+      <c r="T278" s="32"/>
+      <c r="U278" s="32"/>
+      <c r="V278" s="32"/>
+      <c r="W278" s="32"/>
+      <c r="X278" s="32"/>
+      <c r="Y278" s="32"/>
+      <c r="Z278" s="32"/>
+      <c r="AA278" s="32"/>
+      <c r="AB278" s="32"/>
+      <c r="AC278" s="32"/>
+      <c r="AD278" s="32"/>
+      <c r="AE278" s="32"/>
+      <c r="AF278" s="32"/>
+      <c r="AG278" s="32"/>
+      <c r="AH278" s="32"/>
+      <c r="AI278" s="32"/>
+    </row>
+    <row r="279" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B279" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C279" s="34"/>
+      <c r="D279" s="34"/>
+      <c r="E279" s="34"/>
+      <c r="F279" s="63"/>
+      <c r="G279" s="64"/>
+      <c r="H279" s="65"/>
+      <c r="I279" s="34"/>
+      <c r="J279" s="34"/>
+      <c r="K279" s="34"/>
+      <c r="L279" s="34"/>
+      <c r="M279" s="34"/>
+      <c r="N279" s="34"/>
+      <c r="O279" s="34"/>
+      <c r="P279" s="32"/>
+      <c r="Q279" s="32"/>
+      <c r="R279" s="32"/>
+      <c r="S279" s="32"/>
+      <c r="T279" s="32"/>
+      <c r="U279" s="32"/>
+      <c r="V279" s="32"/>
+      <c r="W279" s="32"/>
+      <c r="X279" s="32"/>
+      <c r="Y279" s="32"/>
+      <c r="Z279" s="32"/>
+      <c r="AA279" s="32"/>
+      <c r="AB279" s="32"/>
+      <c r="AC279" s="32"/>
+      <c r="AD279" s="32"/>
+      <c r="AE279" s="32"/>
+      <c r="AF279" s="32"/>
+      <c r="AG279" s="32"/>
+      <c r="AH279" s="32"/>
+      <c r="AI279" s="32"/>
+    </row>
+    <row r="280" spans="2:35" ht="83.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B280" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C280" s="34"/>
+      <c r="D280" s="35" t="s">
+        <v>613</v>
+      </c>
+      <c r="E280" s="35" t="s">
+        <v>614</v>
+      </c>
+      <c r="F280" s="66" t="s">
+        <v>615</v>
+      </c>
+      <c r="G280" s="67"/>
+      <c r="H280" s="68"/>
+      <c r="I280" s="35" t="s">
+        <v>616</v>
+      </c>
+      <c r="J280" s="35" t="s">
+        <v>600</v>
+      </c>
+      <c r="K280" s="34"/>
+      <c r="L280" s="34"/>
+      <c r="M280" s="34"/>
+      <c r="N280" s="34"/>
+      <c r="O280" s="34"/>
+      <c r="P280" s="32"/>
+      <c r="Q280" s="32"/>
+      <c r="R280" s="32"/>
+      <c r="S280" s="32"/>
+      <c r="T280" s="32"/>
+      <c r="U280" s="32"/>
+      <c r="V280" s="32"/>
+      <c r="W280" s="32"/>
+      <c r="X280" s="32"/>
+      <c r="Y280" s="32"/>
+      <c r="Z280" s="32"/>
+      <c r="AA280" s="32"/>
+      <c r="AB280" s="32"/>
+      <c r="AC280" s="32"/>
+      <c r="AD280" s="32"/>
+      <c r="AE280" s="32"/>
+      <c r="AF280" s="32"/>
+      <c r="AG280" s="32"/>
+      <c r="AH280" s="32"/>
+      <c r="AI280" s="32"/>
+    </row>
+    <row r="281" spans="2:35" ht="83.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B281" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="C281" s="34"/>
+      <c r="D281" s="35" t="s">
+        <v>617</v>
+      </c>
+      <c r="E281" s="35" t="s">
+        <v>618</v>
+      </c>
+      <c r="F281" s="66" t="s">
+        <v>615</v>
+      </c>
+      <c r="G281" s="67"/>
+      <c r="H281" s="68"/>
+      <c r="I281" s="35" t="s">
+        <v>619</v>
+      </c>
+      <c r="J281" s="35" t="s">
+        <v>600</v>
+      </c>
+      <c r="K281" s="34"/>
+      <c r="L281" s="34"/>
+      <c r="M281" s="34"/>
+      <c r="N281" s="34"/>
+      <c r="O281" s="34"/>
+      <c r="P281" s="32"/>
+      <c r="Q281" s="32"/>
+      <c r="R281" s="32"/>
+      <c r="S281" s="32"/>
+      <c r="T281" s="32"/>
+      <c r="U281" s="32"/>
+      <c r="V281" s="32"/>
+      <c r="W281" s="32"/>
+      <c r="X281" s="32"/>
+      <c r="Y281" s="32"/>
+      <c r="Z281" s="32"/>
+      <c r="AA281" s="32"/>
+      <c r="AB281" s="32"/>
+      <c r="AC281" s="32"/>
+      <c r="AD281" s="32"/>
+      <c r="AE281" s="32"/>
+      <c r="AF281" s="32"/>
+      <c r="AG281" s="32"/>
+      <c r="AH281" s="32"/>
+      <c r="AI281" s="32"/>
+    </row>
+    <row r="282" spans="2:35" ht="83.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B282" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C282" s="34"/>
+      <c r="D282" s="35" t="s">
+        <v>620</v>
+      </c>
+      <c r="E282" s="35" t="s">
+        <v>621</v>
+      </c>
+      <c r="F282" s="66" t="s">
+        <v>615</v>
+      </c>
+      <c r="G282" s="67"/>
+      <c r="H282" s="68"/>
+      <c r="I282" s="35" t="s">
+        <v>622</v>
+      </c>
+      <c r="J282" s="35" t="s">
+        <v>600</v>
+      </c>
+      <c r="K282" s="34"/>
+      <c r="L282" s="34"/>
+      <c r="M282" s="34"/>
+      <c r="N282" s="34"/>
+      <c r="O282" s="34"/>
+      <c r="P282" s="32"/>
+      <c r="Q282" s="32"/>
+      <c r="R282" s="32"/>
+      <c r="S282" s="32"/>
+      <c r="T282" s="32"/>
+      <c r="U282" s="32"/>
+      <c r="V282" s="32"/>
+      <c r="W282" s="32"/>
+      <c r="X282" s="32"/>
+      <c r="Y282" s="32"/>
+      <c r="Z282" s="32"/>
+      <c r="AA282" s="32"/>
+      <c r="AB282" s="32"/>
+      <c r="AC282" s="32"/>
+      <c r="AD282" s="32"/>
+      <c r="AE282" s="32"/>
+      <c r="AF282" s="32"/>
+      <c r="AG282" s="32"/>
+      <c r="AH282" s="32"/>
+      <c r="AI282" s="32"/>
+    </row>
+    <row r="283" spans="2:35" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B283" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C283" s="34"/>
+      <c r="D283" s="35" t="s">
+        <v>623</v>
+      </c>
+      <c r="E283" s="35" t="s">
+        <v>624</v>
+      </c>
+      <c r="F283" s="38" t="s">
+        <v>615</v>
+      </c>
+      <c r="G283" s="39"/>
+      <c r="H283" s="34"/>
+      <c r="I283" s="35" t="s">
+        <v>625</v>
+      </c>
+      <c r="J283" s="35" t="s">
+        <v>600</v>
+      </c>
+      <c r="K283" s="34"/>
+      <c r="L283" s="34"/>
+      <c r="M283" s="34"/>
+      <c r="N283" s="34"/>
+      <c r="O283" s="34"/>
+      <c r="P283" s="32"/>
+      <c r="Q283" s="32"/>
+      <c r="R283" s="32"/>
+      <c r="S283" s="32"/>
+      <c r="T283" s="32"/>
+      <c r="U283" s="32"/>
+      <c r="V283" s="32"/>
+      <c r="W283" s="32"/>
+      <c r="X283" s="32"/>
+      <c r="Y283" s="32"/>
+      <c r="Z283" s="32"/>
+      <c r="AA283" s="32"/>
+      <c r="AB283" s="32"/>
+      <c r="AC283" s="32"/>
+      <c r="AD283" s="32"/>
+      <c r="AE283" s="32"/>
+      <c r="AF283" s="32"/>
+      <c r="AG283" s="32"/>
+      <c r="AH283" s="32"/>
+      <c r="AI283" s="32"/>
+    </row>
+    <row r="285" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="286" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B286" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C286" s="31"/>
+      <c r="D286" s="31"/>
+      <c r="E286" s="31"/>
+      <c r="F286" s="63"/>
+      <c r="G286" s="65"/>
+    </row>
+    <row r="287" spans="2:35" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B287" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="C287" s="35" t="s">
+        <v>626</v>
+      </c>
+      <c r="D287" s="35" t="s">
+        <v>627</v>
+      </c>
+      <c r="E287" s="35" t="s">
+        <v>628</v>
+      </c>
+      <c r="F287" s="66" t="s">
+        <v>629</v>
+      </c>
+      <c r="G287" s="68"/>
+    </row>
+    <row r="288" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B288" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C288" s="34"/>
+      <c r="D288" s="34"/>
+      <c r="E288" s="34"/>
+      <c r="F288" s="63"/>
+      <c r="G288" s="65"/>
+    </row>
+    <row r="289" spans="2:35" ht="111" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B289" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="C289" s="35" t="s">
+        <v>630</v>
+      </c>
+      <c r="D289" s="35" t="s">
+        <v>627</v>
+      </c>
+      <c r="E289" s="35" t="s">
+        <v>631</v>
+      </c>
+      <c r="F289" s="66" t="s">
+        <v>632</v>
+      </c>
+      <c r="G289" s="68"/>
+    </row>
+    <row r="290" spans="2:35" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B290" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="C290" s="35" t="s">
+        <v>630</v>
+      </c>
+      <c r="D290" s="35" t="s">
+        <v>627</v>
+      </c>
+      <c r="E290" s="35" t="s">
+        <v>633</v>
+      </c>
+      <c r="F290" s="66" t="s">
+        <v>634</v>
+      </c>
+      <c r="G290" s="68"/>
+    </row>
+    <row r="293" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="294" spans="2:35" ht="97.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B294" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="C294" s="42" t="s">
+        <v>626</v>
+      </c>
+      <c r="D294" s="42" t="s">
+        <v>635</v>
+      </c>
+      <c r="E294" s="43" t="s">
+        <v>636</v>
+      </c>
+      <c r="F294" s="69" t="s">
+        <v>313</v>
+      </c>
+      <c r="G294" s="70"/>
+      <c r="H294" s="71"/>
+      <c r="I294" s="42" t="s">
+        <v>637</v>
+      </c>
+      <c r="J294" s="42" t="s">
+        <v>638</v>
+      </c>
+      <c r="K294" s="44"/>
+      <c r="L294" s="44"/>
+      <c r="M294" s="44"/>
+      <c r="N294" s="44"/>
+      <c r="O294" s="44"/>
+      <c r="P294" s="45"/>
+      <c r="Q294" s="45"/>
+      <c r="R294" s="45"/>
+      <c r="S294" s="45"/>
+      <c r="T294" s="45"/>
+      <c r="U294" s="45"/>
+      <c r="V294" s="45"/>
+      <c r="W294" s="45"/>
+      <c r="X294" s="45"/>
+      <c r="Y294" s="45"/>
+      <c r="Z294" s="45"/>
+      <c r="AA294" s="45"/>
+      <c r="AB294" s="45"/>
+      <c r="AC294" s="45"/>
+      <c r="AD294" s="45"/>
+      <c r="AE294" s="45"/>
+      <c r="AF294" s="45"/>
+      <c r="AG294" s="45"/>
+      <c r="AH294" s="45"/>
+      <c r="AI294" s="45"/>
+    </row>
+    <row r="295" spans="2:35" ht="97.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B295" s="46" t="s">
+        <v>356</v>
+      </c>
+      <c r="C295" s="47" t="s">
+        <v>626</v>
+      </c>
+      <c r="D295" s="47" t="s">
+        <v>639</v>
+      </c>
+      <c r="E295" s="48" t="s">
+        <v>640</v>
+      </c>
+      <c r="F295" s="69" t="s">
+        <v>641</v>
+      </c>
+      <c r="G295" s="70"/>
+      <c r="H295" s="71"/>
+      <c r="I295" s="47" t="s">
+        <v>637</v>
+      </c>
+      <c r="J295" s="47" t="s">
+        <v>600</v>
+      </c>
+      <c r="K295" s="49"/>
+      <c r="L295" s="49"/>
+      <c r="M295" s="49"/>
+      <c r="N295" s="49"/>
+      <c r="O295" s="49"/>
+      <c r="P295" s="49"/>
+      <c r="Q295" s="49"/>
+      <c r="R295" s="49"/>
+      <c r="S295" s="49"/>
+      <c r="T295" s="49"/>
+      <c r="U295" s="49"/>
+      <c r="V295" s="49"/>
+      <c r="W295" s="49"/>
+      <c r="X295" s="49"/>
+      <c r="Y295" s="49"/>
+      <c r="Z295" s="49"/>
+      <c r="AA295" s="49"/>
+      <c r="AB295" s="49"/>
+      <c r="AC295" s="49"/>
+      <c r="AD295" s="49"/>
+      <c r="AE295" s="49"/>
+      <c r="AF295" s="49"/>
+      <c r="AG295" s="49"/>
+      <c r="AH295" s="49"/>
+      <c r="AI295" s="49"/>
+    </row>
+    <row r="296" spans="2:35" ht="97.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B296" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="C296" s="47" t="s">
+        <v>626</v>
+      </c>
+      <c r="D296" s="47" t="s">
+        <v>642</v>
+      </c>
+      <c r="E296" s="48" t="s">
+        <v>643</v>
+      </c>
+      <c r="F296" s="69" t="s">
+        <v>644</v>
+      </c>
+      <c r="G296" s="70"/>
+      <c r="H296" s="71"/>
+      <c r="I296" s="47" t="s">
+        <v>637</v>
+      </c>
+      <c r="J296" s="47" t="s">
+        <v>600</v>
+      </c>
+      <c r="K296" s="49"/>
+      <c r="L296" s="49"/>
+      <c r="M296" s="49"/>
+      <c r="N296" s="49"/>
+      <c r="O296" s="49"/>
+      <c r="P296" s="49"/>
+      <c r="Q296" s="49"/>
+      <c r="R296" s="49"/>
+      <c r="S296" s="49"/>
+      <c r="T296" s="49"/>
+      <c r="U296" s="49"/>
+      <c r="V296" s="49"/>
+      <c r="W296" s="49"/>
+      <c r="X296" s="49"/>
+      <c r="Y296" s="49"/>
+      <c r="Z296" s="49"/>
+      <c r="AA296" s="49"/>
+      <c r="AB296" s="49"/>
+      <c r="AC296" s="49"/>
+      <c r="AD296" s="49"/>
+      <c r="AE296" s="49"/>
+      <c r="AF296" s="49"/>
+      <c r="AG296" s="49"/>
+      <c r="AH296" s="49"/>
+      <c r="AI296" s="49"/>
+    </row>
+    <row r="297" spans="2:35" ht="97.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B297" s="46" t="s">
+        <v>363</v>
+      </c>
+      <c r="C297" s="47" t="s">
+        <v>626</v>
+      </c>
+      <c r="D297" s="47" t="s">
+        <v>645</v>
+      </c>
+      <c r="E297" s="48" t="s">
+        <v>646</v>
+      </c>
+      <c r="F297" s="69" t="s">
+        <v>647</v>
+      </c>
+      <c r="G297" s="70"/>
+      <c r="H297" s="71"/>
+      <c r="I297" s="47" t="s">
+        <v>637</v>
+      </c>
+      <c r="J297" s="47" t="s">
+        <v>600</v>
+      </c>
+      <c r="K297" s="49"/>
+      <c r="L297" s="49"/>
+      <c r="M297" s="49"/>
+      <c r="N297" s="49"/>
+      <c r="O297" s="49"/>
+      <c r="P297" s="49"/>
+      <c r="Q297" s="49"/>
+      <c r="R297" s="49"/>
+      <c r="S297" s="49"/>
+      <c r="T297" s="49"/>
+      <c r="U297" s="49"/>
+      <c r="V297" s="49"/>
+      <c r="W297" s="49"/>
+      <c r="X297" s="49"/>
+      <c r="Y297" s="49"/>
+      <c r="Z297" s="49"/>
+      <c r="AA297" s="49"/>
+      <c r="AB297" s="49"/>
+      <c r="AC297" s="49"/>
+      <c r="AD297" s="49"/>
+      <c r="AE297" s="49"/>
+      <c r="AF297" s="49"/>
+      <c r="AG297" s="49"/>
+      <c r="AH297" s="49"/>
+      <c r="AI297" s="49"/>
+    </row>
+    <row r="298" spans="2:35" ht="97.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B298" s="46" t="s">
+        <v>365</v>
+      </c>
+      <c r="C298" s="47" t="s">
+        <v>626</v>
+      </c>
+      <c r="D298" s="47" t="s">
+        <v>648</v>
+      </c>
+      <c r="E298" s="48" t="s">
+        <v>649</v>
+      </c>
+      <c r="F298" s="69" t="s">
+        <v>650</v>
+      </c>
+      <c r="G298" s="70"/>
+      <c r="H298" s="71"/>
+      <c r="I298" s="47" t="s">
+        <v>637</v>
+      </c>
+      <c r="J298" s="47" t="s">
+        <v>600</v>
+      </c>
+      <c r="K298" s="49"/>
+      <c r="L298" s="49"/>
+      <c r="M298" s="49"/>
+      <c r="N298" s="49"/>
+      <c r="O298" s="49"/>
+      <c r="P298" s="49"/>
+      <c r="Q298" s="49"/>
+      <c r="R298" s="49"/>
+      <c r="S298" s="49"/>
+      <c r="T298" s="49"/>
+      <c r="U298" s="49"/>
+      <c r="V298" s="49"/>
+      <c r="W298" s="49"/>
+      <c r="X298" s="49"/>
+      <c r="Y298" s="49"/>
+      <c r="Z298" s="49"/>
+      <c r="AA298" s="49"/>
+      <c r="AB298" s="49"/>
+      <c r="AC298" s="49"/>
+      <c r="AD298" s="49"/>
+      <c r="AE298" s="49"/>
+      <c r="AF298" s="49"/>
+      <c r="AG298" s="49"/>
+      <c r="AH298" s="49"/>
+      <c r="AI298" s="49"/>
+    </row>
+    <row r="299" spans="2:35" ht="97.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B299" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="C299" s="47" t="s">
+        <v>626</v>
+      </c>
+      <c r="D299" s="47" t="s">
+        <v>651</v>
+      </c>
+      <c r="E299" s="48" t="s">
+        <v>652</v>
+      </c>
+      <c r="F299" s="69" t="s">
+        <v>653</v>
+      </c>
+      <c r="G299" s="70"/>
+      <c r="H299" s="71"/>
+      <c r="I299" s="47" t="s">
+        <v>637</v>
+      </c>
+      <c r="J299" s="47" t="s">
+        <v>600</v>
+      </c>
+      <c r="K299" s="49"/>
+      <c r="L299" s="49"/>
+      <c r="M299" s="49"/>
+      <c r="N299" s="49"/>
+      <c r="O299" s="49"/>
+      <c r="P299" s="49"/>
+      <c r="Q299" s="49"/>
+      <c r="R299" s="49"/>
+      <c r="S299" s="49"/>
+      <c r="T299" s="49"/>
+      <c r="U299" s="49"/>
+      <c r="V299" s="49"/>
+      <c r="W299" s="49"/>
+      <c r="X299" s="49"/>
+      <c r="Y299" s="49"/>
+      <c r="Z299" s="49"/>
+      <c r="AA299" s="49"/>
+      <c r="AB299" s="49"/>
+      <c r="AC299" s="49"/>
+      <c r="AD299" s="49"/>
+      <c r="AE299" s="49"/>
+      <c r="AF299" s="49"/>
+      <c r="AG299" s="49"/>
+      <c r="AH299" s="49"/>
+      <c r="AI299" s="49"/>
+    </row>
+    <row r="300" spans="2:35" ht="97.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B300" s="46" t="s">
+        <v>372</v>
+      </c>
+      <c r="C300" s="47" t="s">
+        <v>626</v>
+      </c>
+      <c r="D300" s="47" t="s">
+        <v>654</v>
+      </c>
+      <c r="E300" s="48" t="s">
+        <v>655</v>
+      </c>
+      <c r="F300" s="69" t="s">
+        <v>656</v>
+      </c>
+      <c r="G300" s="70"/>
+      <c r="H300" s="71"/>
+      <c r="I300" s="47" t="s">
+        <v>637</v>
+      </c>
+      <c r="J300" s="47" t="s">
+        <v>600</v>
+      </c>
+      <c r="K300" s="49"/>
+      <c r="L300" s="49"/>
+      <c r="M300" s="49"/>
+      <c r="N300" s="49"/>
+      <c r="O300" s="49"/>
+      <c r="P300" s="49"/>
+      <c r="Q300" s="49"/>
+      <c r="R300" s="49"/>
+      <c r="S300" s="49"/>
+      <c r="T300" s="49"/>
+      <c r="U300" s="49"/>
+      <c r="V300" s="49"/>
+      <c r="W300" s="49"/>
+      <c r="X300" s="49"/>
+      <c r="Y300" s="49"/>
+      <c r="Z300" s="49"/>
+      <c r="AA300" s="49"/>
+      <c r="AB300" s="49"/>
+      <c r="AC300" s="49"/>
+      <c r="AD300" s="49"/>
+      <c r="AE300" s="49"/>
+      <c r="AF300" s="49"/>
+      <c r="AG300" s="49"/>
+      <c r="AH300" s="49"/>
+      <c r="AI300" s="49"/>
+    </row>
+    <row r="304" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="305" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B305" s="72" t="s">
+        <v>657</v>
+      </c>
+      <c r="C305" s="73"/>
+      <c r="D305" s="73"/>
+      <c r="E305" s="73"/>
+      <c r="F305" s="73"/>
+      <c r="G305" s="73"/>
+      <c r="H305" s="73"/>
+      <c r="I305" s="73"/>
+      <c r="J305" s="73"/>
+      <c r="K305" s="73"/>
+      <c r="L305" s="73"/>
+      <c r="M305" s="73"/>
+      <c r="N305" s="73"/>
+      <c r="O305" s="74"/>
+    </row>
+    <row r="306" spans="2:15" ht="138.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B306" s="46" t="s">
+        <v>483</v>
+      </c>
+      <c r="C306" s="47" t="s">
+        <v>626</v>
+      </c>
+      <c r="D306" s="47" t="s">
+        <v>658</v>
+      </c>
+      <c r="E306" s="48" t="s">
+        <v>659</v>
+      </c>
+      <c r="F306" s="63"/>
+      <c r="G306" s="64"/>
+      <c r="H306" s="65"/>
+      <c r="I306" s="47" t="s">
+        <v>637</v>
+      </c>
+      <c r="J306" s="47" t="s">
+        <v>600</v>
+      </c>
+      <c r="K306" s="49"/>
+      <c r="L306" s="49"/>
+      <c r="M306" s="49"/>
+      <c r="N306" s="49"/>
+      <c r="O306" s="49"/>
+    </row>
+    <row r="307" spans="2:15" ht="124.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B307" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="C307" s="47" t="s">
+        <v>626</v>
+      </c>
+      <c r="D307" s="47" t="s">
+        <v>660</v>
+      </c>
+      <c r="E307" s="48" t="s">
+        <v>661</v>
+      </c>
+      <c r="F307" s="63"/>
+      <c r="G307" s="64"/>
+      <c r="H307" s="65"/>
+      <c r="I307" s="47" t="s">
+        <v>637</v>
+      </c>
+      <c r="J307" s="47" t="s">
+        <v>638</v>
+      </c>
+      <c r="K307" s="49"/>
+      <c r="L307" s="49"/>
+      <c r="M307" s="49"/>
+      <c r="N307" s="49"/>
+      <c r="O307" s="49"/>
+    </row>
+    <row r="310" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="311" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B311" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="C311" s="44"/>
+      <c r="D311" s="44"/>
+      <c r="E311" s="44"/>
+      <c r="F311" s="63"/>
+      <c r="G311" s="64"/>
+      <c r="H311" s="65"/>
+      <c r="I311" s="44"/>
+    </row>
+    <row r="312" spans="2:15" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B312" s="46" t="s">
+        <v>423</v>
+      </c>
+      <c r="C312" s="47" t="s">
+        <v>626</v>
+      </c>
+      <c r="D312" s="47" t="s">
+        <v>662</v>
+      </c>
+      <c r="E312" s="47" t="s">
+        <v>663</v>
+      </c>
+      <c r="F312" s="69" t="s">
+        <v>664</v>
+      </c>
+      <c r="G312" s="70"/>
+      <c r="H312" s="71"/>
+      <c r="I312" s="47" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="313" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B313" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="C313" s="34"/>
+      <c r="D313" s="34"/>
+      <c r="E313" s="34"/>
+      <c r="F313" s="63"/>
+      <c r="G313" s="64"/>
+      <c r="H313" s="65"/>
+      <c r="I313" s="34"/>
+    </row>
+    <row r="314" spans="2:15" ht="111" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B314" s="46" t="s">
+        <v>422</v>
+      </c>
+      <c r="C314" s="47" t="s">
+        <v>665</v>
+      </c>
+      <c r="D314" s="47" t="s">
+        <v>662</v>
+      </c>
+      <c r="E314" s="47" t="s">
+        <v>666</v>
+      </c>
+      <c r="F314" s="69" t="s">
+        <v>667</v>
+      </c>
+      <c r="G314" s="70"/>
+      <c r="H314" s="71"/>
+      <c r="I314" s="47" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="315" spans="2:15" ht="111" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B315" s="46" t="s">
+        <v>421</v>
+      </c>
+      <c r="C315" s="47" t="s">
+        <v>668</v>
+      </c>
+      <c r="D315" s="47" t="s">
+        <v>662</v>
+      </c>
+      <c r="E315" s="47" t="s">
+        <v>669</v>
+      </c>
+      <c r="F315" s="69" t="s">
+        <v>670</v>
+      </c>
+      <c r="G315" s="70"/>
+      <c r="H315" s="71"/>
+      <c r="I315" s="47" t="s">
+        <v>637</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="31">
+    <mergeCell ref="F315:H315"/>
+    <mergeCell ref="F307:H307"/>
+    <mergeCell ref="F311:H311"/>
+    <mergeCell ref="F312:H312"/>
+    <mergeCell ref="F313:H313"/>
+    <mergeCell ref="F314:H314"/>
+    <mergeCell ref="F298:H298"/>
+    <mergeCell ref="F299:H299"/>
+    <mergeCell ref="F300:H300"/>
+    <mergeCell ref="B305:O305"/>
+    <mergeCell ref="F306:H306"/>
+    <mergeCell ref="F290:G290"/>
+    <mergeCell ref="F294:H294"/>
+    <mergeCell ref="F295:H295"/>
+    <mergeCell ref="F296:H296"/>
+    <mergeCell ref="F297:H297"/>
+    <mergeCell ref="F282:H282"/>
+    <mergeCell ref="F286:G286"/>
+    <mergeCell ref="F287:G287"/>
+    <mergeCell ref="F288:G288"/>
+    <mergeCell ref="F289:G289"/>
+    <mergeCell ref="F277:H277"/>
+    <mergeCell ref="F278:H278"/>
+    <mergeCell ref="F279:H279"/>
+    <mergeCell ref="F280:H280"/>
+    <mergeCell ref="F281:H281"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F274:H274"/>
+    <mergeCell ref="F275:H275"/>
+    <mergeCell ref="F276:H276"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
